--- a/CARACT PEP.xlsx
+++ b/CARACT PEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javeb\Desktop\GITHUB\TareaR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199FB866-F33F-49F7-9503-5BB64ABC8912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F084D29-0815-4731-92B5-D281148865A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="160">
   <si>
     <t>nombre</t>
   </si>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>ID en uniprot</t>
-  </si>
-  <si>
-    <t>digestion realizada en BIOPEP</t>
   </si>
   <si>
     <t>https://biochemia.uwm.edu.pl/en/biopep-uwm-2/</t>
@@ -491,6 +488,52 @@
   </si>
   <si>
     <t xml:space="preserve">Compute the FASGAI vectors </t>
+  </si>
+  <si>
+    <t>The FASGAI vectors (Factor Analysis Scales of Generalized Amino Acid Information) is a set of
+amino acid descriptors, that reflects hydrophobicity, alpha and turn propensities, bulky properties,
+compositional characteristics, local flexibility, and electronic properties, that can be utilized to rep resent the sequence structural features of peptides or protein motifs.</t>
+  </si>
+  <si>
+    <t>Electronic properties</t>
+  </si>
+  <si>
+    <t>Local flexibility,</t>
+  </si>
+  <si>
+    <t>Compositional characteristic index,</t>
+  </si>
+  <si>
+    <t>Bulky properties,</t>
+  </si>
+  <si>
+    <t>Alpha and turn propensities,</t>
+  </si>
+  <si>
+    <t>Hydrophobicity index,</t>
+  </si>
+  <si>
+    <t>This function calculates the GRAVY hydrophobicity index of an amino acids sequence using one
+of the 38 scales from different sources.</t>
+  </si>
+  <si>
+    <t>The isoelectric point (pI), is the pH at which a particular molecule or surface carries no net electrical
+charge.</t>
+  </si>
+  <si>
+    <t>HIDROPHOBICITY</t>
+  </si>
+  <si>
+    <t>ISOELECTRIC POINT</t>
+  </si>
+  <si>
+    <t>NET CHARGE</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/</t>
+  </si>
+  <si>
+    <t>digestion realizada en BIOPEP con subtilisina</t>
   </si>
 </sst>
 </file>
@@ -658,7 +701,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -674,16 +717,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -914,13 +947,13 @@
   <dimension ref="A1:O1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.54296875" customWidth="1"/>
     <col min="5" max="5" width="20.81640625" customWidth="1"/>
     <col min="6" max="6" width="75.453125" customWidth="1"/>
@@ -1195,8 +1228,16 @@
     <row r="12" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C13" s="15"/>
+    <row r="13" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
@@ -1205,17 +1246,19 @@
       <c r="B14" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
@@ -1223,7 +1266,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -1232,7 +1275,7 @@
         <v>42</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="15"/>
     </row>
@@ -1241,7 +1284,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="15"/>
     </row>
@@ -1250,16 +1293,16 @@
         <v>44</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>141</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>142</v>
       </c>
       <c r="C20" s="15"/>
     </row>
@@ -1268,7 +1311,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="15"/>
     </row>
@@ -1277,7 +1320,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="15"/>
     </row>
@@ -1286,83 +1329,101 @@
         <v>47</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="23"/>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>48</v>
       </c>
+      <c r="B25" s="23" t="s">
+        <v>152</v>
+      </c>
       <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>49</v>
       </c>
+      <c r="B26" s="23" t="s">
+        <v>151</v>
+      </c>
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>50</v>
       </c>
+      <c r="B27" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="C27" s="15"/>
     </row>
     <row r="28" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>51</v>
       </c>
+      <c r="B28" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>52</v>
       </c>
+      <c r="B29" s="23" t="s">
+        <v>148</v>
+      </c>
       <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>53</v>
       </c>
+      <c r="B30" s="23" t="s">
+        <v>147</v>
+      </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
         <v>54</v>
       </c>
+      <c r="B31" s="25" t="s">
+        <v>153</v>
+      </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
         <v>55</v>
       </c>
+      <c r="B32" s="25" t="s">
+        <v>153</v>
+      </c>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
         <v>56</v>
       </c>
+      <c r="B33" s="25" t="s">
+        <v>154</v>
+      </c>
       <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C35" s="15"/>
@@ -4298,8 +4359,8 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4330,7 +4391,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>45</v>
@@ -4360,13 +4421,13 @@
         <v>53</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="16" t="s">
         <v>55</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
@@ -9858,7 +9919,7 @@
         <v>115</v>
       </c>
       <c r="C98" s="20" t="str">
-        <f t="shared" ref="C98:C129" si="3">IF(COUNTIF(B:B,B98)&gt;1,"DUPLICATE", "UNIQUE")</f>
+        <f t="shared" ref="C98:C109" si="3">IF(COUNTIF(B:B,B98)&gt;1,"DUPLICATE", "UNIQUE")</f>
         <v>DUPLICATE</v>
       </c>
       <c r="D98" s="22">

--- a/CARACT PEP.xlsx
+++ b/CARACT PEP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javeb\Desktop\GITHUB\TareaR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F084D29-0815-4731-92B5-D281148865A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C5DA11-A9E6-4C5A-BD37-A2624C4D4C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13490" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="166">
   <si>
     <t>nombre</t>
   </si>
@@ -534,6 +534,24 @@
   </si>
   <si>
     <t>digestion realizada en BIOPEP con subtilisina</t>
+  </si>
+  <si>
+    <t>CapB_IB20(KG01)</t>
+  </si>
+  <si>
+    <t>DUPLICATE</t>
+  </si>
+  <si>
+    <t>CapA_IB20(KG01_1)</t>
+  </si>
+  <si>
+    <t>ITPQGGGDL</t>
+  </si>
+  <si>
+    <t>CapA_6A1(KG01_1)</t>
+  </si>
+  <si>
+    <t>CspA_IB20(KG01)</t>
   </si>
 </sst>
 </file>
@@ -946,20 +964,20 @@
   </sheetPr>
   <dimension ref="A1:O1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" customWidth="1"/>
-    <col min="6" max="6" width="75.453125" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +998,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,7 +1019,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1123,7 +1141,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1157,7 +1175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1174,7 +1192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1191,7 +1209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1208,7 +1226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1225,10 +1243,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>134</v>
       </c>
@@ -1239,7 +1257,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -1250,7 +1268,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>40</v>
       </c>
@@ -1261,7 +1279,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>41</v>
       </c>
@@ -1270,7 +1288,7 @@
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>42</v>
       </c>
@@ -1279,7 +1297,7 @@
       </c>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:3" ht="175" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>43</v>
       </c>
@@ -1288,7 +1306,7 @@
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>44</v>
       </c>
@@ -1297,7 +1315,7 @@
       </c>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>140</v>
       </c>
@@ -1306,7 +1324,7 @@
       </c>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>45</v>
       </c>
@@ -1315,7 +1333,7 @@
       </c>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>46</v>
       </c>
@@ -1324,7 +1342,7 @@
       </c>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>47</v>
       </c>
@@ -1335,7 +1353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>145</v>
       </c>
@@ -1344,7 +1362,7 @@
       </c>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>48</v>
       </c>
@@ -1353,7 +1371,7 @@
       </c>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>49</v>
       </c>
@@ -1362,7 +1380,7 @@
       </c>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>50</v>
       </c>
@@ -1371,7 +1389,7 @@
       </c>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>51</v>
       </c>
@@ -1380,7 +1398,7 @@
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>52</v>
       </c>
@@ -1389,7 +1407,7 @@
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>53</v>
       </c>
@@ -1398,7 +1416,7 @@
       </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
         <v>54</v>
       </c>
@@ -1407,7 +1425,7 @@
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
         <v>55</v>
       </c>
@@ -1416,7 +1434,7 @@
       </c>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
         <v>56</v>
       </c>
@@ -1425,2914 +1443,2914 @@
       </c>
       <c r="C33" s="15"/>
     </row>
-    <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C52" s="15"/>
     </row>
-    <row r="53" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C53" s="15"/>
     </row>
-    <row r="54" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C54" s="15"/>
     </row>
-    <row r="55" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="15"/>
     </row>
-    <row r="56" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="15"/>
     </row>
-    <row r="57" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="15"/>
     </row>
-    <row r="58" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="15"/>
     </row>
-    <row r="59" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="15"/>
     </row>
-    <row r="60" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="15"/>
     </row>
-    <row r="61" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C61" s="15"/>
     </row>
-    <row r="62" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" s="15"/>
     </row>
-    <row r="63" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" s="15"/>
     </row>
-    <row r="64" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="15"/>
     </row>
-    <row r="65" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="15"/>
     </row>
-    <row r="66" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C66" s="15"/>
     </row>
-    <row r="67" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C67" s="15"/>
     </row>
-    <row r="68" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="15"/>
     </row>
-    <row r="69" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C69" s="15"/>
     </row>
-    <row r="70" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C70" s="15"/>
     </row>
-    <row r="71" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="15"/>
     </row>
-    <row r="72" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C72" s="15"/>
     </row>
-    <row r="73" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C73" s="15"/>
     </row>
-    <row r="74" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C74" s="15"/>
     </row>
-    <row r="75" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C75" s="15"/>
     </row>
-    <row r="76" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C76" s="15"/>
     </row>
-    <row r="77" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C77" s="15"/>
     </row>
-    <row r="78" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C78" s="15"/>
     </row>
-    <row r="79" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C79" s="15"/>
     </row>
-    <row r="80" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C80" s="15"/>
     </row>
-    <row r="81" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C81" s="15"/>
     </row>
-    <row r="82" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C82" s="15"/>
     </row>
-    <row r="83" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C83" s="15"/>
     </row>
-    <row r="84" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C84" s="15"/>
     </row>
-    <row r="85" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C85" s="15"/>
     </row>
-    <row r="86" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C87" s="15"/>
     </row>
-    <row r="88" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C88" s="15"/>
     </row>
-    <row r="89" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C89" s="15"/>
     </row>
-    <row r="90" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C91" s="15"/>
     </row>
-    <row r="92" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C92" s="15"/>
     </row>
-    <row r="93" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C93" s="15"/>
     </row>
-    <row r="94" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C94" s="15"/>
     </row>
-    <row r="95" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C96" s="15"/>
     </row>
-    <row r="97" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C99" s="15"/>
     </row>
-    <row r="100" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C101" s="15"/>
     </row>
-    <row r="102" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C102" s="15"/>
     </row>
-    <row r="103" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C103" s="15"/>
     </row>
-    <row r="104" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C104" s="15"/>
     </row>
-    <row r="105" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C105" s="15"/>
     </row>
-    <row r="106" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C106" s="15"/>
     </row>
-    <row r="107" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C107" s="15"/>
     </row>
-    <row r="108" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C108" s="15"/>
     </row>
-    <row r="109" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C109" s="15"/>
     </row>
-    <row r="110" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C110" s="15"/>
     </row>
-    <row r="111" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C111" s="15"/>
     </row>
-    <row r="112" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C112" s="15"/>
     </row>
-    <row r="113" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C113" s="15"/>
     </row>
-    <row r="114" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C114" s="15"/>
     </row>
-    <row r="115" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C115" s="15"/>
     </row>
-    <row r="116" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C116" s="15"/>
     </row>
-    <row r="117" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C117" s="15"/>
     </row>
-    <row r="118" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C118" s="15"/>
     </row>
-    <row r="119" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C119" s="15"/>
     </row>
-    <row r="120" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C120" s="15"/>
     </row>
-    <row r="121" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C121" s="15"/>
     </row>
-    <row r="122" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C122" s="15"/>
     </row>
-    <row r="123" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C123" s="15"/>
     </row>
-    <row r="124" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C124" s="15"/>
     </row>
-    <row r="125" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C125" s="15"/>
     </row>
-    <row r="126" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C126" s="15"/>
     </row>
-    <row r="127" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C127" s="15"/>
     </row>
-    <row r="128" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C128" s="15"/>
     </row>
-    <row r="129" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C129" s="15"/>
     </row>
-    <row r="130" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C130" s="15"/>
     </row>
-    <row r="131" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C131" s="15"/>
     </row>
-    <row r="132" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C132" s="15"/>
     </row>
-    <row r="133" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C133" s="15"/>
     </row>
-    <row r="134" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C134" s="15"/>
     </row>
-    <row r="135" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C135" s="15"/>
     </row>
-    <row r="136" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C136" s="15"/>
     </row>
-    <row r="137" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C137" s="15"/>
     </row>
-    <row r="138" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C138" s="15"/>
     </row>
-    <row r="139" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C139" s="15"/>
     </row>
-    <row r="140" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C140" s="15"/>
     </row>
-    <row r="141" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C141" s="15"/>
     </row>
-    <row r="142" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C142" s="15"/>
     </row>
-    <row r="143" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C143" s="15"/>
     </row>
-    <row r="144" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C144" s="15"/>
     </row>
-    <row r="145" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C145" s="15"/>
     </row>
-    <row r="146" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C146" s="15"/>
     </row>
-    <row r="147" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C147" s="15"/>
     </row>
-    <row r="148" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C148" s="15"/>
     </row>
-    <row r="149" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C149" s="15"/>
     </row>
-    <row r="150" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C150" s="15"/>
     </row>
-    <row r="151" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C151" s="15"/>
     </row>
-    <row r="152" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C152" s="15"/>
     </row>
-    <row r="153" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C153" s="15"/>
     </row>
-    <row r="154" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C154" s="15"/>
     </row>
-    <row r="155" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C155" s="15"/>
     </row>
-    <row r="156" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C156" s="15"/>
     </row>
-    <row r="157" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C157" s="15"/>
     </row>
-    <row r="158" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C158" s="15"/>
     </row>
-    <row r="159" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C159" s="15"/>
     </row>
-    <row r="160" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C160" s="15"/>
     </row>
-    <row r="161" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C161" s="15"/>
     </row>
-    <row r="162" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C162" s="15"/>
     </row>
-    <row r="163" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C163" s="15"/>
     </row>
-    <row r="164" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C164" s="15"/>
     </row>
-    <row r="165" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C165" s="15"/>
     </row>
-    <row r="166" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C166" s="15"/>
     </row>
-    <row r="167" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C167" s="15"/>
     </row>
-    <row r="168" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C168" s="15"/>
     </row>
-    <row r="169" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C169" s="15"/>
     </row>
-    <row r="170" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C170" s="15"/>
     </row>
-    <row r="171" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C171" s="15"/>
     </row>
-    <row r="172" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C172" s="15"/>
     </row>
-    <row r="173" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C173" s="15"/>
     </row>
-    <row r="174" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C174" s="15"/>
     </row>
-    <row r="175" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C175" s="15"/>
     </row>
-    <row r="176" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C176" s="15"/>
     </row>
-    <row r="177" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C177" s="15"/>
     </row>
-    <row r="178" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C178" s="15"/>
     </row>
-    <row r="179" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C179" s="15"/>
     </row>
-    <row r="180" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C180" s="15"/>
     </row>
-    <row r="181" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C181" s="15"/>
     </row>
-    <row r="182" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C182" s="15"/>
     </row>
-    <row r="183" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C183" s="15"/>
     </row>
-    <row r="184" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C184" s="15"/>
     </row>
-    <row r="185" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C185" s="15"/>
     </row>
-    <row r="186" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C186" s="15"/>
     </row>
-    <row r="187" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C187" s="15"/>
     </row>
-    <row r="188" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C188" s="15"/>
     </row>
-    <row r="189" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C189" s="15"/>
     </row>
-    <row r="190" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C190" s="15"/>
     </row>
-    <row r="191" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C191" s="15"/>
     </row>
-    <row r="192" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C192" s="15"/>
     </row>
-    <row r="193" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C193" s="15"/>
     </row>
-    <row r="194" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C194" s="15"/>
     </row>
-    <row r="195" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C195" s="15"/>
     </row>
-    <row r="196" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C196" s="15"/>
     </row>
-    <row r="197" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C197" s="15"/>
     </row>
-    <row r="198" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C198" s="15"/>
     </row>
-    <row r="199" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C199" s="15"/>
     </row>
-    <row r="200" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C200" s="15"/>
     </row>
-    <row r="201" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C201" s="15"/>
     </row>
-    <row r="202" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C202" s="15"/>
     </row>
-    <row r="203" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C203" s="15"/>
     </row>
-    <row r="204" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C204" s="15"/>
     </row>
-    <row r="205" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C205" s="15"/>
     </row>
-    <row r="206" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C206" s="15"/>
     </row>
-    <row r="207" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C207" s="15"/>
     </row>
-    <row r="208" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C208" s="15"/>
     </row>
-    <row r="209" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C209" s="15"/>
     </row>
-    <row r="210" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C210" s="15"/>
     </row>
-    <row r="211" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C211" s="15"/>
     </row>
-    <row r="212" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C212" s="15"/>
     </row>
-    <row r="213" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C213" s="15"/>
     </row>
-    <row r="214" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C214" s="15"/>
     </row>
-    <row r="215" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C215" s="15"/>
     </row>
-    <row r="216" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C216" s="15"/>
     </row>
-    <row r="217" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C217" s="15"/>
     </row>
-    <row r="218" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C218" s="15"/>
     </row>
-    <row r="219" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C219" s="15"/>
     </row>
-    <row r="220" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C220" s="15"/>
     </row>
-    <row r="221" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C221" s="15"/>
     </row>
-    <row r="222" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C222" s="15"/>
     </row>
-    <row r="223" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C223" s="15"/>
     </row>
-    <row r="224" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C224" s="15"/>
     </row>
-    <row r="225" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C225" s="15"/>
     </row>
-    <row r="226" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C226" s="15"/>
     </row>
-    <row r="227" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C227" s="15"/>
     </row>
-    <row r="228" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C228" s="15"/>
     </row>
-    <row r="229" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C229" s="15"/>
     </row>
-    <row r="230" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C230" s="15"/>
     </row>
-    <row r="231" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C231" s="15"/>
     </row>
-    <row r="232" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C232" s="15"/>
     </row>
-    <row r="233" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C233" s="15"/>
     </row>
-    <row r="234" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C234" s="15"/>
     </row>
-    <row r="235" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C235" s="15"/>
     </row>
-    <row r="236" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C236" s="15"/>
     </row>
-    <row r="237" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C237" s="15"/>
     </row>
-    <row r="238" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C238" s="15"/>
     </row>
-    <row r="239" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C239" s="15"/>
     </row>
-    <row r="240" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C240" s="15"/>
     </row>
-    <row r="241" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C241" s="15"/>
     </row>
-    <row r="242" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C242" s="15"/>
     </row>
-    <row r="243" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C243" s="15"/>
     </row>
-    <row r="244" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C244" s="15"/>
     </row>
-    <row r="245" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C245" s="15"/>
     </row>
-    <row r="246" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C246" s="15"/>
     </row>
-    <row r="247" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C247" s="15"/>
     </row>
-    <row r="248" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C248" s="15"/>
     </row>
-    <row r="249" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C249" s="15"/>
     </row>
-    <row r="250" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C250" s="15"/>
     </row>
-    <row r="251" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C251" s="15"/>
     </row>
-    <row r="252" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C252" s="15"/>
     </row>
-    <row r="253" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C253" s="15"/>
     </row>
-    <row r="254" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C254" s="15"/>
     </row>
-    <row r="255" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C255" s="15"/>
     </row>
-    <row r="256" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C256" s="15"/>
     </row>
-    <row r="257" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C257" s="15"/>
     </row>
-    <row r="258" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C258" s="15"/>
     </row>
-    <row r="259" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C259" s="15"/>
     </row>
-    <row r="260" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C260" s="15"/>
     </row>
-    <row r="261" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C261" s="15"/>
     </row>
-    <row r="262" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C262" s="15"/>
     </row>
-    <row r="263" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C263" s="15"/>
     </row>
-    <row r="264" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C264" s="15"/>
     </row>
-    <row r="265" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C265" s="15"/>
     </row>
-    <row r="266" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C266" s="15"/>
     </row>
-    <row r="267" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C267" s="15"/>
     </row>
-    <row r="268" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C268" s="15"/>
     </row>
-    <row r="269" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C269" s="15"/>
     </row>
-    <row r="270" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C270" s="15"/>
     </row>
-    <row r="271" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C271" s="15"/>
     </row>
-    <row r="272" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C272" s="15"/>
     </row>
-    <row r="273" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C273" s="15"/>
     </row>
-    <row r="274" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C274" s="15"/>
     </row>
-    <row r="275" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C275" s="15"/>
     </row>
-    <row r="276" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C276" s="15"/>
     </row>
-    <row r="277" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C277" s="15"/>
     </row>
-    <row r="278" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C278" s="15"/>
     </row>
-    <row r="279" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C279" s="15"/>
     </row>
-    <row r="280" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C280" s="15"/>
     </row>
-    <row r="281" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C281" s="15"/>
     </row>
-    <row r="282" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C282" s="15"/>
     </row>
-    <row r="283" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C283" s="15"/>
     </row>
-    <row r="284" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C284" s="15"/>
     </row>
-    <row r="285" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C285" s="15"/>
     </row>
-    <row r="286" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C286" s="15"/>
     </row>
-    <row r="287" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C287" s="15"/>
     </row>
-    <row r="288" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C288" s="15"/>
     </row>
-    <row r="289" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C289" s="15"/>
     </row>
-    <row r="290" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C290" s="15"/>
     </row>
-    <row r="291" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C291" s="15"/>
     </row>
-    <row r="292" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C292" s="15"/>
     </row>
-    <row r="293" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C293" s="15"/>
     </row>
-    <row r="294" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C294" s="15"/>
     </row>
-    <row r="295" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C295" s="15"/>
     </row>
-    <row r="296" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C296" s="15"/>
     </row>
-    <row r="297" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C297" s="15"/>
     </row>
-    <row r="298" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C298" s="15"/>
     </row>
-    <row r="299" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C299" s="15"/>
     </row>
-    <row r="300" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C300" s="15"/>
     </row>
-    <row r="301" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C301" s="15"/>
     </row>
-    <row r="302" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C302" s="15"/>
     </row>
-    <row r="303" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C303" s="15"/>
     </row>
-    <row r="304" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C304" s="15"/>
     </row>
-    <row r="305" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C305" s="15"/>
     </row>
-    <row r="306" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C306" s="15"/>
     </row>
-    <row r="307" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C307" s="15"/>
     </row>
-    <row r="308" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C308" s="15"/>
     </row>
-    <row r="309" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C309" s="15"/>
     </row>
-    <row r="310" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C310" s="15"/>
     </row>
-    <row r="311" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C311" s="15"/>
     </row>
-    <row r="312" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C312" s="15"/>
     </row>
-    <row r="313" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C313" s="15"/>
     </row>
-    <row r="314" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C314" s="15"/>
     </row>
-    <row r="315" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C315" s="15"/>
     </row>
-    <row r="316" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C316" s="15"/>
     </row>
-    <row r="317" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C317" s="15"/>
     </row>
-    <row r="318" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C318" s="15"/>
     </row>
-    <row r="319" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C319" s="15"/>
     </row>
-    <row r="320" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C320" s="15"/>
     </row>
-    <row r="321" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C321" s="15"/>
     </row>
-    <row r="322" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C322" s="15"/>
     </row>
-    <row r="323" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C323" s="15"/>
     </row>
-    <row r="324" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C324" s="15"/>
     </row>
-    <row r="325" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C325" s="15"/>
     </row>
-    <row r="326" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C326" s="15"/>
     </row>
-    <row r="327" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C327" s="15"/>
     </row>
-    <row r="328" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C328" s="15"/>
     </row>
-    <row r="329" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C329" s="15"/>
     </row>
-    <row r="330" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C330" s="15"/>
     </row>
-    <row r="331" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C331" s="15"/>
     </row>
-    <row r="332" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C332" s="15"/>
     </row>
-    <row r="333" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C333" s="15"/>
     </row>
-    <row r="334" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C334" s="15"/>
     </row>
-    <row r="335" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C335" s="15"/>
     </row>
-    <row r="336" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C336" s="15"/>
     </row>
-    <row r="337" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C337" s="15"/>
     </row>
-    <row r="338" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C338" s="15"/>
     </row>
-    <row r="339" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C339" s="15"/>
     </row>
-    <row r="340" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C340" s="15"/>
     </row>
-    <row r="341" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C341" s="15"/>
     </row>
-    <row r="342" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C342" s="15"/>
     </row>
-    <row r="343" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C343" s="15"/>
     </row>
-    <row r="344" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C344" s="15"/>
     </row>
-    <row r="345" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C345" s="15"/>
     </row>
-    <row r="346" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C346" s="15"/>
     </row>
-    <row r="347" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C347" s="15"/>
     </row>
-    <row r="348" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C348" s="15"/>
     </row>
-    <row r="349" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C349" s="15"/>
     </row>
-    <row r="350" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C350" s="15"/>
     </row>
-    <row r="351" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C351" s="15"/>
     </row>
-    <row r="352" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C352" s="15"/>
     </row>
-    <row r="353" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C353" s="15"/>
     </row>
-    <row r="354" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C354" s="15"/>
     </row>
-    <row r="355" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C355" s="15"/>
     </row>
-    <row r="356" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C356" s="15"/>
     </row>
-    <row r="357" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C357" s="15"/>
     </row>
-    <row r="358" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C358" s="15"/>
     </row>
-    <row r="359" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C359" s="15"/>
     </row>
-    <row r="360" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C360" s="15"/>
     </row>
-    <row r="361" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C361" s="15"/>
     </row>
-    <row r="362" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C362" s="15"/>
     </row>
-    <row r="363" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C363" s="15"/>
     </row>
-    <row r="364" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C364" s="15"/>
     </row>
-    <row r="365" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C365" s="15"/>
     </row>
-    <row r="366" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C366" s="15"/>
     </row>
-    <row r="367" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C367" s="15"/>
     </row>
-    <row r="368" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C368" s="15"/>
     </row>
-    <row r="369" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C369" s="15"/>
     </row>
-    <row r="370" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C370" s="15"/>
     </row>
-    <row r="371" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C371" s="15"/>
     </row>
-    <row r="372" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C372" s="15"/>
     </row>
-    <row r="373" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C373" s="15"/>
     </row>
-    <row r="374" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C374" s="15"/>
     </row>
-    <row r="375" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C375" s="15"/>
     </row>
-    <row r="376" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C376" s="15"/>
     </row>
-    <row r="377" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C377" s="15"/>
     </row>
-    <row r="378" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C378" s="15"/>
     </row>
-    <row r="379" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C379" s="15"/>
     </row>
-    <row r="380" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C380" s="15"/>
     </row>
-    <row r="381" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C381" s="15"/>
     </row>
-    <row r="382" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C382" s="15"/>
     </row>
-    <row r="383" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C383" s="15"/>
     </row>
-    <row r="384" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C384" s="15"/>
     </row>
-    <row r="385" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C385" s="15"/>
     </row>
-    <row r="386" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C386" s="15"/>
     </row>
-    <row r="387" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C387" s="15"/>
     </row>
-    <row r="388" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C388" s="15"/>
     </row>
-    <row r="389" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C389" s="15"/>
     </row>
-    <row r="390" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C390" s="15"/>
     </row>
-    <row r="391" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C391" s="15"/>
     </row>
-    <row r="392" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C392" s="15"/>
     </row>
-    <row r="393" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C393" s="15"/>
     </row>
-    <row r="394" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C394" s="15"/>
     </row>
-    <row r="395" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C395" s="15"/>
     </row>
-    <row r="396" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C396" s="15"/>
     </row>
-    <row r="397" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C397" s="15"/>
     </row>
-    <row r="398" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C398" s="15"/>
     </row>
-    <row r="399" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C399" s="15"/>
     </row>
-    <row r="400" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C400" s="15"/>
     </row>
-    <row r="401" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C401" s="15"/>
     </row>
-    <row r="402" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C402" s="15"/>
     </row>
-    <row r="403" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C403" s="15"/>
     </row>
-    <row r="404" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C404" s="15"/>
     </row>
-    <row r="405" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C405" s="15"/>
     </row>
-    <row r="406" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C406" s="15"/>
     </row>
-    <row r="407" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C407" s="15"/>
     </row>
-    <row r="408" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C408" s="15"/>
     </row>
-    <row r="409" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C409" s="15"/>
     </row>
-    <row r="410" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C410" s="15"/>
     </row>
-    <row r="411" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C411" s="15"/>
     </row>
-    <row r="412" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C412" s="15"/>
     </row>
-    <row r="413" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C413" s="15"/>
     </row>
-    <row r="414" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C414" s="15"/>
     </row>
-    <row r="415" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C415" s="15"/>
     </row>
-    <row r="416" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C416" s="15"/>
     </row>
-    <row r="417" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C417" s="15"/>
     </row>
-    <row r="418" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C418" s="15"/>
     </row>
-    <row r="419" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C419" s="15"/>
     </row>
-    <row r="420" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C420" s="15"/>
     </row>
-    <row r="421" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C421" s="15"/>
     </row>
-    <row r="422" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C422" s="15"/>
     </row>
-    <row r="423" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C423" s="15"/>
     </row>
-    <row r="424" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C424" s="15"/>
     </row>
-    <row r="425" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C425" s="15"/>
     </row>
-    <row r="426" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C426" s="15"/>
     </row>
-    <row r="427" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C427" s="15"/>
     </row>
-    <row r="428" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C428" s="15"/>
     </row>
-    <row r="429" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C429" s="15"/>
     </row>
-    <row r="430" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C430" s="15"/>
     </row>
-    <row r="431" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C431" s="15"/>
     </row>
-    <row r="432" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C432" s="15"/>
     </row>
-    <row r="433" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C433" s="15"/>
     </row>
-    <row r="434" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C434" s="15"/>
     </row>
-    <row r="435" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C435" s="15"/>
     </row>
-    <row r="436" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C436" s="15"/>
     </row>
-    <row r="437" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C437" s="15"/>
     </row>
-    <row r="438" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C438" s="15"/>
     </row>
-    <row r="439" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C439" s="15"/>
     </row>
-    <row r="440" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C440" s="15"/>
     </row>
-    <row r="441" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C441" s="15"/>
     </row>
-    <row r="442" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C442" s="15"/>
     </row>
-    <row r="443" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C443" s="15"/>
     </row>
-    <row r="444" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C444" s="15"/>
     </row>
-    <row r="445" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C445" s="15"/>
     </row>
-    <row r="446" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C446" s="15"/>
     </row>
-    <row r="447" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C447" s="15"/>
     </row>
-    <row r="448" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C448" s="15"/>
     </row>
-    <row r="449" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C449" s="15"/>
     </row>
-    <row r="450" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C450" s="15"/>
     </row>
-    <row r="451" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C451" s="15"/>
     </row>
-    <row r="452" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C452" s="15"/>
     </row>
-    <row r="453" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C453" s="15"/>
     </row>
-    <row r="454" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C454" s="15"/>
     </row>
-    <row r="455" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C455" s="15"/>
     </row>
-    <row r="456" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C456" s="15"/>
     </row>
-    <row r="457" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C457" s="15"/>
     </row>
-    <row r="458" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C458" s="15"/>
     </row>
-    <row r="459" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C459" s="15"/>
     </row>
-    <row r="460" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C460" s="15"/>
     </row>
-    <row r="461" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C461" s="15"/>
     </row>
-    <row r="462" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C462" s="15"/>
     </row>
-    <row r="463" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C463" s="15"/>
     </row>
-    <row r="464" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C464" s="15"/>
     </row>
-    <row r="465" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C465" s="15"/>
     </row>
-    <row r="466" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C466" s="15"/>
     </row>
-    <row r="467" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C467" s="15"/>
     </row>
-    <row r="468" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C468" s="15"/>
     </row>
-    <row r="469" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C469" s="15"/>
     </row>
-    <row r="470" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C470" s="15"/>
     </row>
-    <row r="471" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C471" s="15"/>
     </row>
-    <row r="472" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C472" s="15"/>
     </row>
-    <row r="473" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C473" s="15"/>
     </row>
-    <row r="474" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C474" s="15"/>
     </row>
-    <row r="475" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C475" s="15"/>
     </row>
-    <row r="476" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C476" s="15"/>
     </row>
-    <row r="477" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C477" s="15"/>
     </row>
-    <row r="478" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C478" s="15"/>
     </row>
-    <row r="479" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C479" s="15"/>
     </row>
-    <row r="480" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C480" s="15"/>
     </row>
-    <row r="481" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C481" s="15"/>
     </row>
-    <row r="482" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C482" s="15"/>
     </row>
-    <row r="483" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C483" s="15"/>
     </row>
-    <row r="484" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C484" s="15"/>
     </row>
-    <row r="485" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C485" s="15"/>
     </row>
-    <row r="486" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C486" s="15"/>
     </row>
-    <row r="487" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C487" s="15"/>
     </row>
-    <row r="488" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C488" s="15"/>
     </row>
-    <row r="489" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C489" s="15"/>
     </row>
-    <row r="490" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C490" s="15"/>
     </row>
-    <row r="491" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C491" s="15"/>
     </row>
-    <row r="492" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C492" s="15"/>
     </row>
-    <row r="493" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C493" s="15"/>
     </row>
-    <row r="494" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C494" s="15"/>
     </row>
-    <row r="495" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C495" s="15"/>
     </row>
-    <row r="496" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C496" s="15"/>
     </row>
-    <row r="497" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C497" s="15"/>
     </row>
-    <row r="498" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C498" s="15"/>
     </row>
-    <row r="499" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C499" s="15"/>
     </row>
-    <row r="500" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C500" s="15"/>
     </row>
-    <row r="501" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C501" s="15"/>
     </row>
-    <row r="502" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C502" s="15"/>
     </row>
-    <row r="503" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C503" s="15"/>
     </row>
-    <row r="504" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C504" s="15"/>
     </row>
-    <row r="505" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C505" s="15"/>
     </row>
-    <row r="506" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C506" s="15"/>
     </row>
-    <row r="507" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C507" s="15"/>
     </row>
-    <row r="508" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C508" s="15"/>
     </row>
-    <row r="509" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C509" s="15"/>
     </row>
-    <row r="510" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C510" s="15"/>
     </row>
-    <row r="511" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C511" s="15"/>
     </row>
-    <row r="512" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C512" s="15"/>
     </row>
-    <row r="513" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C513" s="15"/>
     </row>
-    <row r="514" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C514" s="15"/>
     </row>
-    <row r="515" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C515" s="15"/>
     </row>
-    <row r="516" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C516" s="15"/>
     </row>
-    <row r="517" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C517" s="15"/>
     </row>
-    <row r="518" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C518" s="15"/>
     </row>
-    <row r="519" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C519" s="15"/>
     </row>
-    <row r="520" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C520" s="15"/>
     </row>
-    <row r="521" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C521" s="15"/>
     </row>
-    <row r="522" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C522" s="15"/>
     </row>
-    <row r="523" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C523" s="15"/>
     </row>
-    <row r="524" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C524" s="15"/>
     </row>
-    <row r="525" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C525" s="15"/>
     </row>
-    <row r="526" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C526" s="15"/>
     </row>
-    <row r="527" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C527" s="15"/>
     </row>
-    <row r="528" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C528" s="15"/>
     </row>
-    <row r="529" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C529" s="15"/>
     </row>
-    <row r="530" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C530" s="15"/>
     </row>
-    <row r="531" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C531" s="15"/>
     </row>
-    <row r="532" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C532" s="15"/>
     </row>
-    <row r="533" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C533" s="15"/>
     </row>
-    <row r="534" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C534" s="15"/>
     </row>
-    <row r="535" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C535" s="15"/>
     </row>
-    <row r="536" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C536" s="15"/>
     </row>
-    <row r="537" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C537" s="15"/>
     </row>
-    <row r="538" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C538" s="15"/>
     </row>
-    <row r="539" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C539" s="15"/>
     </row>
-    <row r="540" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C540" s="15"/>
     </row>
-    <row r="541" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C541" s="15"/>
     </row>
-    <row r="542" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C542" s="15"/>
     </row>
-    <row r="543" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C543" s="15"/>
     </row>
-    <row r="544" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C544" s="15"/>
     </row>
-    <row r="545" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C545" s="15"/>
     </row>
-    <row r="546" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C546" s="15"/>
     </row>
-    <row r="547" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C547" s="15"/>
     </row>
-    <row r="548" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C548" s="15"/>
     </row>
-    <row r="549" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C549" s="15"/>
     </row>
-    <row r="550" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C550" s="15"/>
     </row>
-    <row r="551" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C551" s="15"/>
     </row>
-    <row r="552" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C552" s="15"/>
     </row>
-    <row r="553" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C553" s="15"/>
     </row>
-    <row r="554" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C554" s="15"/>
     </row>
-    <row r="555" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C555" s="15"/>
     </row>
-    <row r="556" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C556" s="15"/>
     </row>
-    <row r="557" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C557" s="15"/>
     </row>
-    <row r="558" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C558" s="15"/>
     </row>
-    <row r="559" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C559" s="15"/>
     </row>
-    <row r="560" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C560" s="15"/>
     </row>
-    <row r="561" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C561" s="15"/>
     </row>
-    <row r="562" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C562" s="15"/>
     </row>
-    <row r="563" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C563" s="15"/>
     </row>
-    <row r="564" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C564" s="15"/>
     </row>
-    <row r="565" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C565" s="15"/>
     </row>
-    <row r="566" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C566" s="15"/>
     </row>
-    <row r="567" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C567" s="15"/>
     </row>
-    <row r="568" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C568" s="15"/>
     </row>
-    <row r="569" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C569" s="15"/>
     </row>
-    <row r="570" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C570" s="15"/>
     </row>
-    <row r="571" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C571" s="15"/>
     </row>
-    <row r="572" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C572" s="15"/>
     </row>
-    <row r="573" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C573" s="15"/>
     </row>
-    <row r="574" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C574" s="15"/>
     </row>
-    <row r="575" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C575" s="15"/>
     </row>
-    <row r="576" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C576" s="15"/>
     </row>
-    <row r="577" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C577" s="15"/>
     </row>
-    <row r="578" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C578" s="15"/>
     </row>
-    <row r="579" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C579" s="15"/>
     </row>
-    <row r="580" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C580" s="15"/>
     </row>
-    <row r="581" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C581" s="15"/>
     </row>
-    <row r="582" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C582" s="15"/>
     </row>
-    <row r="583" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C583" s="15"/>
     </row>
-    <row r="584" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C584" s="15"/>
     </row>
-    <row r="585" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C585" s="15"/>
     </row>
-    <row r="586" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C586" s="15"/>
     </row>
-    <row r="587" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C587" s="15"/>
     </row>
-    <row r="588" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C588" s="15"/>
     </row>
-    <row r="589" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C589" s="15"/>
     </row>
-    <row r="590" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C590" s="15"/>
     </row>
-    <row r="591" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C591" s="15"/>
     </row>
-    <row r="592" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C592" s="15"/>
     </row>
-    <row r="593" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C593" s="15"/>
     </row>
-    <row r="594" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C594" s="15"/>
     </row>
-    <row r="595" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C595" s="15"/>
     </row>
-    <row r="596" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C596" s="15"/>
     </row>
-    <row r="597" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C597" s="15"/>
     </row>
-    <row r="598" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C598" s="15"/>
     </row>
-    <row r="599" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C599" s="15"/>
     </row>
-    <row r="600" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C600" s="15"/>
     </row>
-    <row r="601" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C601" s="15"/>
     </row>
-    <row r="602" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C602" s="15"/>
     </row>
-    <row r="603" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C603" s="15"/>
     </row>
-    <row r="604" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C604" s="15"/>
     </row>
-    <row r="605" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C605" s="15"/>
     </row>
-    <row r="606" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C606" s="15"/>
     </row>
-    <row r="607" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C607" s="15"/>
     </row>
-    <row r="608" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C608" s="15"/>
     </row>
-    <row r="609" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C609" s="15"/>
     </row>
-    <row r="610" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C610" s="15"/>
     </row>
-    <row r="611" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C611" s="15"/>
     </row>
-    <row r="612" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C612" s="15"/>
     </row>
-    <row r="613" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C613" s="15"/>
     </row>
-    <row r="614" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C614" s="15"/>
     </row>
-    <row r="615" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C615" s="15"/>
     </row>
-    <row r="616" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C616" s="15"/>
     </row>
-    <row r="617" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C617" s="15"/>
     </row>
-    <row r="618" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C618" s="15"/>
     </row>
-    <row r="619" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C619" s="15"/>
     </row>
-    <row r="620" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C620" s="15"/>
     </row>
-    <row r="621" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C621" s="15"/>
     </row>
-    <row r="622" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C622" s="15"/>
     </row>
-    <row r="623" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C623" s="15"/>
     </row>
-    <row r="624" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C624" s="15"/>
     </row>
-    <row r="625" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C625" s="15"/>
     </row>
-    <row r="626" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C626" s="15"/>
     </row>
-    <row r="627" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C627" s="15"/>
     </row>
-    <row r="628" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C628" s="15"/>
     </row>
-    <row r="629" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C629" s="15"/>
     </row>
-    <row r="630" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C630" s="15"/>
     </row>
-    <row r="631" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C631" s="15"/>
     </row>
-    <row r="632" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C632" s="15"/>
     </row>
-    <row r="633" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C633" s="15"/>
     </row>
-    <row r="634" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C634" s="15"/>
     </row>
-    <row r="635" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C635" s="15"/>
     </row>
-    <row r="636" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C636" s="15"/>
     </row>
-    <row r="637" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C637" s="15"/>
     </row>
-    <row r="638" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C638" s="15"/>
     </row>
-    <row r="639" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C639" s="15"/>
     </row>
-    <row r="640" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C640" s="15"/>
     </row>
-    <row r="641" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C641" s="15"/>
     </row>
-    <row r="642" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C642" s="15"/>
     </row>
-    <row r="643" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C643" s="15"/>
     </row>
-    <row r="644" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C644" s="15"/>
     </row>
-    <row r="645" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C645" s="15"/>
     </row>
-    <row r="646" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C646" s="15"/>
     </row>
-    <row r="647" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C647" s="15"/>
     </row>
-    <row r="648" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C648" s="15"/>
     </row>
-    <row r="649" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C649" s="15"/>
     </row>
-    <row r="650" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C650" s="15"/>
     </row>
-    <row r="651" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C651" s="15"/>
     </row>
-    <row r="652" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C652" s="15"/>
     </row>
-    <row r="653" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C653" s="15"/>
     </row>
-    <row r="654" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C654" s="15"/>
     </row>
-    <row r="655" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C655" s="15"/>
     </row>
-    <row r="656" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C656" s="15"/>
     </row>
-    <row r="657" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C657" s="15"/>
     </row>
-    <row r="658" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C658" s="15"/>
     </row>
-    <row r="659" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C659" s="15"/>
     </row>
-    <row r="660" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C660" s="15"/>
     </row>
-    <row r="661" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C661" s="15"/>
     </row>
-    <row r="662" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C662" s="15"/>
     </row>
-    <row r="663" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C663" s="15"/>
     </row>
-    <row r="664" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C664" s="15"/>
     </row>
-    <row r="665" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C665" s="15"/>
     </row>
-    <row r="666" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C666" s="15"/>
     </row>
-    <row r="667" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C667" s="15"/>
     </row>
-    <row r="668" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C668" s="15"/>
     </row>
-    <row r="669" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C669" s="15"/>
     </row>
-    <row r="670" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C670" s="15"/>
     </row>
-    <row r="671" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C671" s="15"/>
     </row>
-    <row r="672" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C672" s="15"/>
     </row>
-    <row r="673" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C673" s="15"/>
     </row>
-    <row r="674" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C674" s="15"/>
     </row>
-    <row r="675" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C675" s="15"/>
     </row>
-    <row r="676" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C676" s="15"/>
     </row>
-    <row r="677" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C677" s="15"/>
     </row>
-    <row r="678" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C678" s="15"/>
     </row>
-    <row r="679" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C679" s="15"/>
     </row>
-    <row r="680" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C680" s="15"/>
     </row>
-    <row r="681" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C681" s="15"/>
     </row>
-    <row r="682" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C682" s="15"/>
     </row>
-    <row r="683" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C683" s="15"/>
     </row>
-    <row r="684" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C684" s="15"/>
     </row>
-    <row r="685" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C685" s="15"/>
     </row>
-    <row r="686" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C686" s="15"/>
     </row>
-    <row r="687" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C687" s="15"/>
     </row>
-    <row r="688" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C688" s="15"/>
     </row>
-    <row r="689" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C689" s="15"/>
     </row>
-    <row r="690" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C690" s="15"/>
     </row>
-    <row r="691" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C691" s="15"/>
     </row>
-    <row r="692" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C692" s="15"/>
     </row>
-    <row r="693" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C693" s="15"/>
     </row>
-    <row r="694" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C694" s="15"/>
     </row>
-    <row r="695" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C695" s="15"/>
     </row>
-    <row r="696" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C696" s="15"/>
     </row>
-    <row r="697" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C697" s="15"/>
     </row>
-    <row r="698" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C698" s="15"/>
     </row>
-    <row r="699" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C699" s="15"/>
     </row>
-    <row r="700" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C700" s="15"/>
     </row>
-    <row r="701" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C701" s="15"/>
     </row>
-    <row r="702" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C702" s="15"/>
     </row>
-    <row r="703" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C703" s="15"/>
     </row>
-    <row r="704" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C704" s="15"/>
     </row>
-    <row r="705" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C705" s="15"/>
     </row>
-    <row r="706" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C706" s="15"/>
     </row>
-    <row r="707" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C707" s="15"/>
     </row>
-    <row r="708" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C708" s="15"/>
     </row>
-    <row r="709" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C709" s="15"/>
     </row>
-    <row r="710" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C710" s="15"/>
     </row>
-    <row r="711" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C711" s="15"/>
     </row>
-    <row r="712" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C712" s="15"/>
     </row>
-    <row r="713" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C713" s="15"/>
     </row>
-    <row r="714" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C714" s="15"/>
     </row>
-    <row r="715" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C715" s="15"/>
     </row>
-    <row r="716" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C716" s="15"/>
     </row>
-    <row r="717" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C717" s="15"/>
     </row>
-    <row r="718" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C718" s="15"/>
     </row>
-    <row r="719" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C719" s="15"/>
     </row>
-    <row r="720" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C720" s="15"/>
     </row>
-    <row r="721" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C721" s="15"/>
     </row>
-    <row r="722" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C722" s="15"/>
     </row>
-    <row r="723" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C723" s="15"/>
     </row>
-    <row r="724" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C724" s="15"/>
     </row>
-    <row r="725" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C725" s="15"/>
     </row>
-    <row r="726" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C726" s="15"/>
     </row>
-    <row r="727" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C727" s="15"/>
     </row>
-    <row r="728" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C728" s="15"/>
     </row>
-    <row r="729" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C729" s="15"/>
     </row>
-    <row r="730" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C730" s="15"/>
     </row>
-    <row r="731" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C731" s="15"/>
     </row>
-    <row r="732" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C732" s="15"/>
     </row>
-    <row r="733" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C733" s="15"/>
     </row>
-    <row r="734" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C734" s="15"/>
     </row>
-    <row r="735" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C735" s="15"/>
     </row>
-    <row r="736" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C736" s="15"/>
     </row>
-    <row r="737" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C737" s="15"/>
     </row>
-    <row r="738" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C738" s="15"/>
     </row>
-    <row r="739" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C739" s="15"/>
     </row>
-    <row r="740" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C740" s="15"/>
     </row>
-    <row r="741" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C741" s="15"/>
     </row>
-    <row r="742" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C742" s="15"/>
     </row>
-    <row r="743" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C743" s="15"/>
     </row>
-    <row r="744" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C744" s="15"/>
     </row>
-    <row r="745" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C745" s="15"/>
     </row>
-    <row r="746" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C746" s="15"/>
     </row>
-    <row r="747" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C747" s="15"/>
     </row>
-    <row r="748" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C748" s="15"/>
     </row>
-    <row r="749" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C749" s="15"/>
     </row>
-    <row r="750" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C750" s="15"/>
     </row>
-    <row r="751" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C751" s="15"/>
     </row>
-    <row r="752" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C752" s="15"/>
     </row>
-    <row r="753" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C753" s="15"/>
     </row>
-    <row r="754" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C754" s="15"/>
     </row>
-    <row r="755" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C755" s="15"/>
     </row>
-    <row r="756" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C756" s="15"/>
     </row>
-    <row r="757" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C757" s="15"/>
     </row>
-    <row r="758" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C758" s="15"/>
     </row>
-    <row r="759" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C759" s="15"/>
     </row>
-    <row r="760" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C760" s="15"/>
     </row>
-    <row r="761" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C761" s="15"/>
     </row>
-    <row r="762" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C762" s="15"/>
     </row>
-    <row r="763" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C763" s="15"/>
     </row>
-    <row r="764" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C764" s="15"/>
     </row>
-    <row r="765" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C765" s="15"/>
     </row>
-    <row r="766" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C766" s="15"/>
     </row>
-    <row r="767" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C767" s="15"/>
     </row>
-    <row r="768" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C768" s="15"/>
     </row>
-    <row r="769" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C769" s="15"/>
     </row>
-    <row r="770" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C770" s="15"/>
     </row>
-    <row r="771" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C771" s="15"/>
     </row>
-    <row r="772" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C772" s="15"/>
     </row>
-    <row r="773" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C773" s="15"/>
     </row>
-    <row r="774" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C774" s="15"/>
     </row>
-    <row r="775" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C775" s="15"/>
     </row>
-    <row r="776" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C776" s="15"/>
     </row>
-    <row r="777" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C777" s="15"/>
     </row>
-    <row r="778" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C778" s="15"/>
     </row>
-    <row r="779" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C779" s="15"/>
     </row>
-    <row r="780" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C780" s="15"/>
     </row>
-    <row r="781" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C781" s="15"/>
     </row>
-    <row r="782" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C782" s="15"/>
     </row>
-    <row r="783" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C783" s="15"/>
     </row>
-    <row r="784" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C784" s="15"/>
     </row>
-    <row r="785" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C785" s="15"/>
     </row>
-    <row r="786" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C786" s="15"/>
     </row>
-    <row r="787" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C787" s="15"/>
     </row>
-    <row r="788" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C788" s="15"/>
     </row>
-    <row r="789" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C789" s="15"/>
     </row>
-    <row r="790" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C790" s="15"/>
     </row>
-    <row r="791" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C791" s="15"/>
     </row>
-    <row r="792" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C792" s="15"/>
     </row>
-    <row r="793" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C793" s="15"/>
     </row>
-    <row r="794" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C794" s="15"/>
     </row>
-    <row r="795" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C795" s="15"/>
     </row>
-    <row r="796" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C796" s="15"/>
     </row>
-    <row r="797" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C797" s="15"/>
     </row>
-    <row r="798" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C798" s="15"/>
     </row>
-    <row r="799" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C799" s="15"/>
     </row>
-    <row r="800" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C800" s="15"/>
     </row>
-    <row r="801" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C801" s="15"/>
     </row>
-    <row r="802" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C802" s="15"/>
     </row>
-    <row r="803" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C803" s="15"/>
     </row>
-    <row r="804" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C804" s="15"/>
     </row>
-    <row r="805" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C805" s="15"/>
     </row>
-    <row r="806" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C806" s="15"/>
     </row>
-    <row r="807" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C807" s="15"/>
     </row>
-    <row r="808" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C808" s="15"/>
     </row>
-    <row r="809" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C809" s="15"/>
     </row>
-    <row r="810" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C810" s="15"/>
     </row>
-    <row r="811" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C811" s="15"/>
     </row>
-    <row r="812" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C812" s="15"/>
     </row>
-    <row r="813" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C813" s="15"/>
     </row>
-    <row r="814" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C814" s="15"/>
     </row>
-    <row r="815" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C815" s="15"/>
     </row>
-    <row r="816" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C816" s="15"/>
     </row>
-    <row r="817" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C817" s="15"/>
     </row>
-    <row r="818" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C818" s="15"/>
     </row>
-    <row r="819" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C819" s="15"/>
     </row>
-    <row r="820" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C820" s="15"/>
     </row>
-    <row r="821" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C821" s="15"/>
     </row>
-    <row r="822" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C822" s="15"/>
     </row>
-    <row r="823" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C823" s="15"/>
     </row>
-    <row r="824" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C824" s="15"/>
     </row>
-    <row r="825" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C825" s="15"/>
     </row>
-    <row r="826" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C826" s="15"/>
     </row>
-    <row r="827" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C827" s="15"/>
     </row>
-    <row r="828" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C828" s="15"/>
     </row>
-    <row r="829" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C829" s="15"/>
     </row>
-    <row r="830" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C830" s="15"/>
     </row>
-    <row r="831" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C831" s="15"/>
     </row>
-    <row r="832" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C832" s="15"/>
     </row>
-    <row r="833" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C833" s="15"/>
     </row>
-    <row r="834" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C834" s="15"/>
     </row>
-    <row r="835" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C835" s="15"/>
     </row>
-    <row r="836" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C836" s="15"/>
     </row>
-    <row r="837" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C837" s="15"/>
     </row>
-    <row r="838" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C838" s="15"/>
     </row>
-    <row r="839" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C839" s="15"/>
     </row>
-    <row r="840" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C840" s="15"/>
     </row>
-    <row r="841" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C841" s="15"/>
     </row>
-    <row r="842" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C842" s="15"/>
     </row>
-    <row r="843" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C843" s="15"/>
     </row>
-    <row r="844" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C844" s="15"/>
     </row>
-    <row r="845" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C845" s="15"/>
     </row>
-    <row r="846" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C846" s="15"/>
     </row>
-    <row r="847" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C847" s="15"/>
     </row>
-    <row r="848" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C848" s="15"/>
     </row>
-    <row r="849" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C849" s="15"/>
     </row>
-    <row r="850" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C850" s="15"/>
     </row>
-    <row r="851" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C851" s="15"/>
     </row>
-    <row r="852" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C852" s="15"/>
     </row>
-    <row r="853" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C853" s="15"/>
     </row>
-    <row r="854" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C854" s="15"/>
     </row>
-    <row r="855" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C855" s="15"/>
     </row>
-    <row r="856" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C856" s="15"/>
     </row>
-    <row r="857" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C857" s="15"/>
     </row>
-    <row r="858" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C858" s="15"/>
     </row>
-    <row r="859" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C859" s="15"/>
     </row>
-    <row r="860" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C860" s="15"/>
     </row>
-    <row r="861" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C861" s="15"/>
     </row>
-    <row r="862" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C862" s="15"/>
     </row>
-    <row r="863" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C863" s="15"/>
     </row>
-    <row r="864" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C864" s="15"/>
     </row>
-    <row r="865" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C865" s="15"/>
     </row>
-    <row r="866" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C866" s="15"/>
     </row>
-    <row r="867" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C867" s="15"/>
     </row>
-    <row r="868" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C868" s="15"/>
     </row>
-    <row r="869" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C869" s="15"/>
     </row>
-    <row r="870" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C870" s="15"/>
     </row>
-    <row r="871" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C871" s="15"/>
     </row>
-    <row r="872" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C872" s="15"/>
     </row>
-    <row r="873" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C873" s="15"/>
     </row>
-    <row r="874" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C874" s="15"/>
     </row>
-    <row r="875" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C875" s="15"/>
     </row>
-    <row r="876" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C876" s="15"/>
     </row>
-    <row r="877" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C877" s="15"/>
     </row>
-    <row r="878" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C878" s="15"/>
     </row>
-    <row r="879" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C879" s="15"/>
     </row>
-    <row r="880" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C880" s="15"/>
     </row>
-    <row r="881" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C881" s="15"/>
     </row>
-    <row r="882" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C882" s="15"/>
     </row>
-    <row r="883" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C883" s="15"/>
     </row>
-    <row r="884" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C884" s="15"/>
     </row>
-    <row r="885" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C885" s="15"/>
     </row>
-    <row r="886" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C886" s="15"/>
     </row>
-    <row r="887" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C887" s="15"/>
     </row>
-    <row r="888" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C888" s="15"/>
     </row>
-    <row r="889" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C889" s="15"/>
     </row>
-    <row r="890" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C890" s="15"/>
     </row>
-    <row r="891" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C891" s="15"/>
     </row>
-    <row r="892" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C892" s="15"/>
     </row>
-    <row r="893" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C893" s="15"/>
     </row>
-    <row r="894" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C894" s="15"/>
     </row>
-    <row r="895" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C895" s="15"/>
     </row>
-    <row r="896" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C896" s="15"/>
     </row>
-    <row r="897" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C897" s="15"/>
     </row>
-    <row r="898" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C898" s="15"/>
     </row>
-    <row r="899" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C899" s="15"/>
     </row>
-    <row r="900" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C900" s="15"/>
     </row>
-    <row r="901" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C901" s="15"/>
     </row>
-    <row r="902" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C902" s="15"/>
     </row>
-    <row r="903" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C903" s="15"/>
     </row>
-    <row r="904" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C904" s="15"/>
     </row>
-    <row r="905" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C905" s="15"/>
     </row>
-    <row r="906" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C906" s="15"/>
     </row>
-    <row r="907" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C907" s="15"/>
     </row>
-    <row r="908" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C908" s="15"/>
     </row>
-    <row r="909" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C909" s="15"/>
     </row>
-    <row r="910" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C910" s="15"/>
     </row>
-    <row r="911" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C911" s="15"/>
     </row>
-    <row r="912" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C912" s="15"/>
     </row>
-    <row r="913" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C913" s="15"/>
     </row>
-    <row r="914" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C914" s="15"/>
     </row>
-    <row r="915" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C915" s="15"/>
     </row>
-    <row r="916" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C916" s="15"/>
     </row>
-    <row r="917" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C917" s="15"/>
     </row>
-    <row r="918" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C918" s="15"/>
     </row>
-    <row r="919" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C919" s="15"/>
     </row>
-    <row r="920" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C920" s="15"/>
     </row>
-    <row r="921" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C921" s="15"/>
     </row>
-    <row r="922" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C922" s="15"/>
     </row>
-    <row r="923" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C923" s="15"/>
     </row>
-    <row r="924" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C924" s="15"/>
     </row>
-    <row r="925" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C925" s="15"/>
     </row>
-    <row r="926" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C926" s="15"/>
     </row>
-    <row r="927" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C927" s="15"/>
     </row>
-    <row r="928" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C928" s="15"/>
     </row>
-    <row r="929" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C929" s="15"/>
     </row>
-    <row r="930" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C930" s="15"/>
     </row>
-    <row r="931" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C931" s="15"/>
     </row>
-    <row r="932" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C932" s="15"/>
     </row>
-    <row r="933" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C933" s="15"/>
     </row>
-    <row r="934" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C934" s="15"/>
     </row>
-    <row r="935" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C935" s="15"/>
     </row>
-    <row r="936" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C936" s="15"/>
     </row>
-    <row r="937" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C937" s="15"/>
     </row>
-    <row r="938" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C938" s="15"/>
     </row>
-    <row r="939" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C939" s="15"/>
     </row>
-    <row r="940" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C940" s="15"/>
     </row>
-    <row r="941" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C941" s="15"/>
     </row>
-    <row r="942" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C942" s="15"/>
     </row>
-    <row r="943" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C943" s="15"/>
     </row>
-    <row r="944" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C944" s="15"/>
     </row>
-    <row r="945" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C945" s="15"/>
     </row>
-    <row r="946" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C946" s="15"/>
     </row>
-    <row r="947" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C947" s="15"/>
     </row>
-    <row r="948" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C948" s="15"/>
     </row>
-    <row r="949" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C949" s="15"/>
     </row>
-    <row r="950" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C950" s="15"/>
     </row>
-    <row r="951" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C951" s="15"/>
     </row>
-    <row r="952" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C952" s="15"/>
     </row>
-    <row r="953" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C953" s="15"/>
     </row>
-    <row r="954" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C954" s="15"/>
     </row>
-    <row r="955" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C955" s="15"/>
     </row>
-    <row r="956" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C956" s="15"/>
     </row>
-    <row r="957" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C957" s="15"/>
     </row>
-    <row r="958" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C958" s="15"/>
     </row>
-    <row r="959" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C959" s="15"/>
     </row>
-    <row r="960" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C960" s="15"/>
     </row>
-    <row r="961" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C961" s="15"/>
     </row>
-    <row r="962" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C962" s="15"/>
     </row>
-    <row r="963" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C963" s="15"/>
     </row>
-    <row r="964" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C964" s="15"/>
     </row>
-    <row r="965" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C965" s="15"/>
     </row>
-    <row r="966" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C966" s="15"/>
     </row>
-    <row r="967" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C967" s="15"/>
     </row>
-    <row r="968" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C968" s="15"/>
     </row>
-    <row r="969" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C969" s="15"/>
     </row>
-    <row r="970" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C970" s="15"/>
     </row>
-    <row r="971" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C971" s="15"/>
     </row>
-    <row r="972" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C972" s="15"/>
     </row>
-    <row r="973" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C973" s="15"/>
     </row>
-    <row r="974" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C974" s="15"/>
     </row>
-    <row r="975" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C975" s="15"/>
     </row>
-    <row r="976" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C976" s="15"/>
     </row>
-    <row r="977" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C977" s="15"/>
     </row>
-    <row r="978" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C978" s="15"/>
     </row>
-    <row r="979" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C979" s="15"/>
     </row>
-    <row r="980" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C980" s="15"/>
     </row>
-    <row r="981" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C981" s="15"/>
     </row>
-    <row r="982" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C982" s="15"/>
     </row>
-    <row r="983" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C983" s="15"/>
     </row>
-    <row r="984" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C984" s="15"/>
     </row>
-    <row r="985" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C985" s="15"/>
     </row>
-    <row r="986" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C986" s="15"/>
     </row>
-    <row r="987" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C987" s="15"/>
     </row>
-    <row r="988" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C988" s="15"/>
     </row>
-    <row r="989" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C989" s="15"/>
     </row>
-    <row r="990" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C990" s="15"/>
     </row>
-    <row r="991" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C991" s="15"/>
     </row>
-    <row r="992" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C992" s="15"/>
     </row>
-    <row r="993" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C993" s="15"/>
     </row>
-    <row r="994" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C994" s="15"/>
     </row>
-    <row r="995" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C995" s="15"/>
     </row>
-    <row r="996" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C996" s="15"/>
     </row>
-    <row r="997" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C997" s="15"/>
     </row>
-    <row r="998" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C998" s="15"/>
     </row>
-    <row r="999" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C999" s="15"/>
     </row>
-    <row r="1000" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1000" s="15"/>
     </row>
-    <row r="1001" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1001" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1001" s="15"/>
     </row>
-    <row r="1002" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1002" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1002" s="15"/>
     </row>
-    <row r="1003" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1003" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1003" s="15"/>
     </row>
-    <row r="1004" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1004" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1004" s="15"/>
     </row>
   </sheetData>
@@ -4359,22 +4377,22 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" customWidth="1"/>
-    <col min="18" max="18" width="24.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>39</v>
       </c>
@@ -4439,7 +4457,7 @@
       <c r="Z1" s="18"/>
       <c r="AA1" s="18"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -4496,7 +4514,7 @@
         <v>5.8349810430021396</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -4553,7 +4571,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -4610,7 +4628,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -4667,7 +4685,7 @@
         <v>2.7033793646531099</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -4724,7 +4742,7 @@
         <v>7.7046383065248403</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -4781,7 +4799,7 @@
         <v>3.0358075364137602</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -4838,7 +4856,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -4895,7 +4913,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -4952,7 +4970,7 @@
         <v>5.8349810430021396</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -5009,7 +5027,7 @@
         <v>7.7616584999982399</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -5066,7 +5084,7 @@
         <v>5.8349810430021396</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -5123,7 +5141,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -5180,7 +5198,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -5237,7 +5255,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -5294,7 +5312,7 @@
         <v>6.8844458222593596</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5351,7 +5369,7 @@
         <v>2.79715833135351</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
@@ -5408,7 +5426,7 @@
         <v>7.7600488961045304</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
@@ -5465,7 +5483,7 @@
         <v>5.8349810430021396</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -5522,7 +5540,7 @@
         <v>2.91499786685702</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -5579,7 +5597,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -5636,7 +5654,7 @@
         <v>2.91499786685702</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -5693,7 +5711,7 @@
         <v>5.8349810430021396</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -5750,7 +5768,7 @@
         <v>7.0322053930408597</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
@@ -5807,7 +5825,7 @@
         <v>5.8349810430021396</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>17</v>
       </c>
@@ -5864,7 +5882,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
@@ -5921,7 +5939,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
@@ -5978,7 +5996,7 @@
         <v>3.1999820964416301</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
@@ -6035,7 +6053,7 @@
         <v>7.7600488961045304</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
@@ -6092,7 +6110,7 @@
         <v>3.1999820964416301</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>17</v>
       </c>
@@ -6149,7 +6167,7 @@
         <v>5.8349810430021396</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>17</v>
       </c>
@@ -6206,7 +6224,7 @@
         <v>3.7036137693945701</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>17</v>
       </c>
@@ -6263,7 +6281,7 @@
         <v>5.8349810430021396</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>17</v>
       </c>
@@ -6320,7 +6338,7 @@
         <v>2.8487701380466</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>17</v>
       </c>
@@ -6377,7 +6395,7 @@
         <v>6.9337978902768498</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>17</v>
       </c>
@@ -6434,7 +6452,7 @@
         <v>5.8349810430021396</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -6491,7 +6509,7 @@
         <v>6.8844458222593596</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
@@ -6548,7 +6566,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -6605,7 +6623,7 @@
         <v>6.8844458222593596</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>21</v>
       </c>
@@ -6662,7 +6680,7 @@
         <v>4.2567259762850496</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -6719,7 +6737,7 @@
         <v>2.7381321111854899</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
@@ -6776,7 +6794,7 @@
         <v>7.7600488961045304</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
@@ -6833,7 +6851,7 @@
         <v>2.91499786685702</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>21</v>
       </c>
@@ -6890,7 +6908,7 @@
         <v>2.79715833135351</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -6947,7 +6965,7 @@
         <v>4.2567259762850496</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>21</v>
       </c>
@@ -7004,7 +7022,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>25</v>
       </c>
@@ -7061,7 +7079,7 @@
         <v>6.8844458222593499</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>25</v>
       </c>
@@ -7118,7 +7136,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>25</v>
       </c>
@@ -7175,7 +7193,7 @@
         <v>2.91499786685702</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>25</v>
       </c>
@@ -7232,7 +7250,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>25</v>
       </c>
@@ -7289,7 +7307,7 @@
         <v>6.6040832517406498</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>25</v>
       </c>
@@ -7346,7 +7364,7 @@
         <v>2.8487701380466</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>25</v>
       </c>
@@ -7403,7 +7421,7 @@
         <v>7.7600488961045304</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>25</v>
       </c>
@@ -7460,7 +7478,7 @@
         <v>6.5505274396535498</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>25</v>
       </c>
@@ -7517,7 +7535,7 @@
         <v>6.9337978902768604</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>25</v>
       </c>
@@ -7574,7 +7592,7 @@
         <v>3.1999820964416301</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>25</v>
       </c>
@@ -7631,7 +7649,7 @@
         <v>3.9791256524074798</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>25</v>
       </c>
@@ -7688,7 +7706,7 @@
         <v>3.0358076462696402</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>25</v>
       </c>
@@ -7745,7 +7763,7 @@
         <v>11.508838676019201</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>25</v>
       </c>
@@ -7802,7 +7820,7 @@
         <v>3.0358076462696402</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>28</v>
       </c>
@@ -7859,7 +7877,7 @@
         <v>5.8349810430021396</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>28</v>
       </c>
@@ -7916,7 +7934,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>28</v>
       </c>
@@ -7973,7 +7991,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>28</v>
       </c>
@@ -8030,7 +8048,7 @@
         <v>2.7033793646531099</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>28</v>
       </c>
@@ -8087,7 +8105,7 @@
         <v>7.7046383065248403</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>28</v>
       </c>
@@ -8144,7 +8162,7 @@
         <v>3.0358075364137602</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>28</v>
       </c>
@@ -8201,7 +8219,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>28</v>
       </c>
@@ -8258,7 +8276,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>28</v>
       </c>
@@ -8315,7 +8333,7 @@
         <v>7.7616584999982399</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>28</v>
       </c>
@@ -8372,7 +8390,7 @@
         <v>5.8349810430021396</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>28</v>
       </c>
@@ -8429,7 +8447,7 @@
         <v>5.8349810430021396</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>30</v>
       </c>
@@ -8486,7 +8504,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>30</v>
       </c>
@@ -8543,7 +8561,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>30</v>
       </c>
@@ -8600,7 +8618,7 @@
         <v>3.9791256524074798</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>30</v>
       </c>
@@ -8657,7 +8675,7 @@
         <v>2.7381321111854899</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>30</v>
       </c>
@@ -8714,7 +8732,7 @@
         <v>7.7600488961045304</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>30</v>
       </c>
@@ -8771,7 +8789,7 @@
         <v>6.8844458222593499</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>30</v>
       </c>
@@ -8828,7 +8846,7 @@
         <v>2.91499786685702</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>30</v>
       </c>
@@ -8885,7 +8903,7 @@
         <v>6.8844458222593499</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>30</v>
       </c>
@@ -8942,7 +8960,7 @@
         <v>10.3437876067822</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>33</v>
       </c>
@@ -8999,7 +9017,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>33</v>
       </c>
@@ -9056,7 +9074,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>33</v>
       </c>
@@ -9113,7 +9131,7 @@
         <v>3.9791256524074798</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>33</v>
       </c>
@@ -9122,7 +9140,7 @@
       </c>
       <c r="C84" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D84" s="22">
         <v>78</v>
@@ -9170,7 +9188,7 @@
         <v>5.8349810430021396</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>33</v>
       </c>
@@ -9179,7 +9197,7 @@
       </c>
       <c r="C85" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D85" s="22">
         <v>97.5</v>
@@ -9227,7 +9245,7 @@
         <v>2.7381321111854899</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>33</v>
       </c>
@@ -9284,7 +9302,7 @@
         <v>7.7600488961045304</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>33</v>
       </c>
@@ -9293,7 +9311,7 @@
       </c>
       <c r="C87" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D87" s="22">
         <v>98</v>
@@ -9341,7 +9359,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>33</v>
       </c>
@@ -9398,7 +9416,7 @@
         <v>2.91499786685702</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>33</v>
       </c>
@@ -9407,7 +9425,7 @@
       </c>
       <c r="C89" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D89" s="22">
         <v>0</v>
@@ -9455,7 +9473,7 @@
         <v>6.8844458222593499</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>33</v>
       </c>
@@ -9464,7 +9482,7 @@
       </c>
       <c r="C90" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D90" s="22">
         <v>45.384615384615401</v>
@@ -9512,7 +9530,7 @@
         <v>7.0322053930408597</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>35</v>
       </c>
@@ -9569,7 +9587,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>35</v>
       </c>
@@ -9626,7 +9644,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>35</v>
       </c>
@@ -9683,7 +9701,7 @@
         <v>3.9791256524074798</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>35</v>
       </c>
@@ -9740,7 +9758,7 @@
         <v>2.7381321111854899</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>35</v>
       </c>
@@ -9797,7 +9815,7 @@
         <v>7.7600488961045304</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>35</v>
       </c>
@@ -9854,7 +9872,7 @@
         <v>6.8844458222593499</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>35</v>
       </c>
@@ -9911,7 +9929,7 @@
         <v>2.91499786685702</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>35</v>
       </c>
@@ -9968,7 +9986,7 @@
         <v>6.8844458222593499</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>35</v>
       </c>
@@ -10025,7 +10043,7 @@
         <v>10.3437876067822</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>36</v>
       </c>
@@ -10034,7 +10052,7 @@
       </c>
       <c r="C100" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D100" s="22">
         <v>12.5</v>
@@ -10082,7 +10100,7 @@
         <v>6.8844458222593499</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>36</v>
       </c>
@@ -10139,7 +10157,7 @@
         <v>10.5100012482126</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>36</v>
       </c>
@@ -10148,7 +10166,7 @@
       </c>
       <c r="C102" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D102" s="22">
         <v>16.6666666666667</v>
@@ -10196,7 +10214,7 @@
         <v>6.5505274396535196</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>36</v>
       </c>
@@ -10205,7 +10223,7 @@
       </c>
       <c r="C103" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D103" s="22">
         <v>48.75</v>
@@ -10253,7 +10271,7 @@
         <v>4.20103366351091</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>36</v>
       </c>
@@ -10262,7 +10280,7 @@
       </c>
       <c r="C104" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D104" s="22">
         <v>96.6666666666667</v>
@@ -10310,7 +10328,7 @@
         <v>7.7046383065248403</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>36</v>
       </c>
@@ -10319,7 +10337,7 @@
       </c>
       <c r="C105" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D105" s="22">
         <v>49</v>
@@ -10367,7 +10385,7 @@
         <v>11.2118783786444</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>36</v>
       </c>
@@ -10376,7 +10394,7 @@
       </c>
       <c r="C106" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D106" s="22">
         <v>20</v>
@@ -10424,7 +10442,7 @@
         <v>3.1999820964416301</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>36</v>
       </c>
@@ -10433,7 +10451,7 @@
       </c>
       <c r="C107" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D107" s="22">
         <v>96.6666666666667</v>
@@ -10481,7 +10499,7 @@
         <v>3.1999818161049798</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>36</v>
       </c>
@@ -10490,7 +10508,7 @@
       </c>
       <c r="C108" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D108" s="22">
         <v>97.142857142857096</v>
@@ -10538,7 +10556,7 @@
         <v>6.8844458222593596</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>36</v>
       </c>
@@ -10547,7 +10565,7 @@
       </c>
       <c r="C109" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>UNIQUE</v>
+        <v>DUPLICATE</v>
       </c>
       <c r="D109" s="22">
         <v>25</v>
@@ -10595,2677 +10613,2981 @@
         <v>2.8487701380466</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B110" s="21"/>
-    </row>
-    <row r="111" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B111" s="21"/>
-    </row>
-    <row r="112" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B112" s="21"/>
-    </row>
-    <row r="113" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B113" s="21"/>
-    </row>
-    <row r="114" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B114" s="21"/>
-    </row>
-    <row r="115" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B115" s="21"/>
-    </row>
-    <row r="116" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B116" s="21"/>
-    </row>
-    <row r="117" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B117" s="21"/>
-    </row>
-    <row r="118" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B118" s="21"/>
-    </row>
-    <row r="119" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B119" s="21"/>
-    </row>
-    <row r="120" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B120" s="21"/>
-    </row>
-    <row r="121" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B121" s="21"/>
-    </row>
-    <row r="122" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B122" s="21"/>
-    </row>
-    <row r="123" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B123" s="21"/>
-    </row>
-    <row r="124" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B124" s="21"/>
-    </row>
-    <row r="125" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B125" s="21"/>
-    </row>
-    <row r="126" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B126" s="21"/>
-    </row>
-    <row r="127" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B127" s="21"/>
-    </row>
-    <row r="128" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B128" s="21"/>
-    </row>
-    <row r="129" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B129" s="21"/>
-    </row>
-    <row r="130" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B130" s="21"/>
-    </row>
-    <row r="131" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B131" s="21"/>
-    </row>
-    <row r="132" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B132" s="21"/>
-    </row>
-    <row r="133" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B133" s="21"/>
-    </row>
-    <row r="134" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B134" s="21"/>
-    </row>
-    <row r="135" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B135" s="21"/>
-    </row>
-    <row r="136" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B136" s="21"/>
-    </row>
-    <row r="137" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B137" s="21"/>
-    </row>
-    <row r="138" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B138" s="21"/>
-    </row>
-    <row r="139" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B139" s="21"/>
-    </row>
-    <row r="140" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B140" s="21"/>
-    </row>
-    <row r="141" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B141" s="21"/>
-    </row>
-    <row r="142" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B142" s="21"/>
-    </row>
-    <row r="143" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B143" s="21"/>
-    </row>
-    <row r="144" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B144" s="21"/>
-    </row>
-    <row r="145" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B145" s="21"/>
-    </row>
-    <row r="146" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B146" s="21"/>
-    </row>
-    <row r="147" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B147" s="21"/>
-    </row>
-    <row r="148" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>160</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>160</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>160</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>164</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>164</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>164</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>164</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>164</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>164</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>164</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>165</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C138" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>165</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C139" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C140" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>165</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C141" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>165</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C142" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C143" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C144" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>165</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C145" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>165</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C146" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>165</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C147" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="21"/>
     </row>
-    <row r="149" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="21"/>
     </row>
-    <row r="150" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B150" s="21"/>
     </row>
-    <row r="151" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="21"/>
     </row>
-    <row r="152" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="21"/>
     </row>
-    <row r="153" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="21"/>
     </row>
-    <row r="154" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="21"/>
     </row>
-    <row r="155" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="21"/>
     </row>
-    <row r="156" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="21"/>
     </row>
-    <row r="157" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="21"/>
     </row>
-    <row r="158" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B158" s="21"/>
     </row>
-    <row r="159" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B159" s="21"/>
     </row>
-    <row r="160" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B160" s="21"/>
     </row>
-    <row r="161" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B161" s="21"/>
     </row>
-    <row r="162" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B162" s="21"/>
     </row>
-    <row r="163" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="21"/>
     </row>
-    <row r="164" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="21"/>
     </row>
-    <row r="165" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="21"/>
     </row>
-    <row r="166" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="21"/>
     </row>
-    <row r="167" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="21"/>
     </row>
-    <row r="168" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B168" s="21"/>
     </row>
-    <row r="169" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B169" s="21"/>
     </row>
-    <row r="170" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="21"/>
     </row>
-    <row r="171" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="21"/>
     </row>
-    <row r="172" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="21"/>
     </row>
-    <row r="173" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="21"/>
     </row>
-    <row r="174" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="21"/>
     </row>
-    <row r="175" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="21"/>
     </row>
-    <row r="176" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="21"/>
     </row>
-    <row r="177" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B177" s="21"/>
     </row>
-    <row r="178" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="21"/>
     </row>
-    <row r="179" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B179" s="21"/>
     </row>
-    <row r="180" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B180" s="21"/>
     </row>
-    <row r="181" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="21"/>
     </row>
-    <row r="182" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="21"/>
     </row>
-    <row r="183" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="21"/>
     </row>
-    <row r="184" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B184" s="21"/>
     </row>
-    <row r="185" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="21"/>
     </row>
-    <row r="186" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="21"/>
     </row>
-    <row r="187" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="21"/>
     </row>
-    <row r="188" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="21"/>
     </row>
-    <row r="189" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="21"/>
     </row>
-    <row r="190" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="21"/>
     </row>
-    <row r="191" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="21"/>
     </row>
-    <row r="192" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="21"/>
     </row>
-    <row r="193" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="21"/>
     </row>
-    <row r="194" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="21"/>
     </row>
-    <row r="195" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B195" s="21"/>
     </row>
-    <row r="196" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B196" s="21"/>
     </row>
-    <row r="197" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B197" s="21"/>
     </row>
-    <row r="198" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="21"/>
     </row>
-    <row r="199" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="21"/>
     </row>
-    <row r="200" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B200" s="21"/>
     </row>
-    <row r="201" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B201" s="21"/>
     </row>
-    <row r="202" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="21"/>
     </row>
-    <row r="203" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="21"/>
     </row>
-    <row r="204" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="21"/>
     </row>
-    <row r="205" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B205" s="21"/>
     </row>
-    <row r="206" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B206" s="21"/>
     </row>
-    <row r="207" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B207" s="21"/>
     </row>
-    <row r="208" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="21"/>
     </row>
-    <row r="209" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="21"/>
     </row>
-    <row r="210" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="21"/>
     </row>
-    <row r="211" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B211" s="21"/>
     </row>
-    <row r="212" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B212" s="21"/>
     </row>
-    <row r="213" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B213" s="21"/>
     </row>
-    <row r="214" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B214" s="21"/>
     </row>
-    <row r="215" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B215" s="21"/>
     </row>
-    <row r="216" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B216" s="21"/>
     </row>
-    <row r="217" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B217" s="21"/>
     </row>
-    <row r="218" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B218" s="21"/>
     </row>
-    <row r="219" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B219" s="21"/>
     </row>
-    <row r="220" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B220" s="21"/>
     </row>
-    <row r="221" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B221" s="21"/>
     </row>
-    <row r="222" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B222" s="21"/>
     </row>
-    <row r="223" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B223" s="21"/>
     </row>
-    <row r="224" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B224" s="21"/>
     </row>
-    <row r="225" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B225" s="21"/>
     </row>
-    <row r="226" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B226" s="21"/>
     </row>
-    <row r="227" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B227" s="21"/>
     </row>
-    <row r="228" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B228" s="21"/>
     </row>
-    <row r="229" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B229" s="21"/>
     </row>
-    <row r="230" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B230" s="21"/>
     </row>
-    <row r="231" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B231" s="21"/>
     </row>
-    <row r="232" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B232" s="21"/>
     </row>
-    <row r="233" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B233" s="21"/>
     </row>
-    <row r="234" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B234" s="21"/>
     </row>
-    <row r="235" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B235" s="21"/>
     </row>
-    <row r="236" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="21"/>
     </row>
-    <row r="237" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B237" s="21"/>
     </row>
-    <row r="238" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B238" s="21"/>
     </row>
-    <row r="239" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B239" s="21"/>
     </row>
-    <row r="240" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="21"/>
     </row>
-    <row r="241" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="21"/>
     </row>
-    <row r="242" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B242" s="21"/>
     </row>
-    <row r="243" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B243" s="21"/>
     </row>
-    <row r="244" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B244" s="21"/>
     </row>
-    <row r="245" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B245" s="21"/>
     </row>
-    <row r="246" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B246" s="21"/>
     </row>
-    <row r="247" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B247" s="21"/>
     </row>
-    <row r="248" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B248" s="21"/>
     </row>
-    <row r="249" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B249" s="21"/>
     </row>
-    <row r="250" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B250" s="21"/>
     </row>
-    <row r="251" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B251" s="21"/>
     </row>
-    <row r="252" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B252" s="21"/>
     </row>
-    <row r="253" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B253" s="21"/>
     </row>
-    <row r="254" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B254" s="21"/>
     </row>
-    <row r="255" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="21"/>
     </row>
-    <row r="256" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="21"/>
     </row>
-    <row r="257" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="21"/>
     </row>
-    <row r="258" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="21"/>
     </row>
-    <row r="259" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="21"/>
     </row>
-    <row r="260" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="21"/>
     </row>
-    <row r="261" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="21"/>
     </row>
-    <row r="262" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="21"/>
     </row>
-    <row r="263" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="21"/>
     </row>
-    <row r="264" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="21"/>
     </row>
-    <row r="265" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="21"/>
     </row>
-    <row r="266" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="21"/>
     </row>
-    <row r="267" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="21"/>
     </row>
-    <row r="268" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="21"/>
     </row>
-    <row r="269" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="21"/>
     </row>
-    <row r="270" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="21"/>
     </row>
-    <row r="271" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="21"/>
     </row>
-    <row r="272" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="21"/>
     </row>
-    <row r="273" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="21"/>
     </row>
-    <row r="274" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="21"/>
     </row>
-    <row r="275" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="21"/>
     </row>
-    <row r="276" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="21"/>
     </row>
-    <row r="277" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="21"/>
     </row>
-    <row r="278" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="21"/>
     </row>
-    <row r="279" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="21"/>
     </row>
-    <row r="280" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="21"/>
     </row>
-    <row r="281" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="21"/>
     </row>
-    <row r="282" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="21"/>
     </row>
-    <row r="283" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="21"/>
     </row>
-    <row r="284" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="21"/>
     </row>
-    <row r="285" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="21"/>
     </row>
-    <row r="286" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="21"/>
     </row>
-    <row r="287" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="21"/>
     </row>
-    <row r="288" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="21"/>
     </row>
-    <row r="289" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="21"/>
     </row>
-    <row r="290" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="21"/>
     </row>
-    <row r="291" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="21"/>
     </row>
-    <row r="292" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="21"/>
     </row>
-    <row r="293" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="21"/>
     </row>
-    <row r="294" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="21"/>
     </row>
-    <row r="295" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="21"/>
     </row>
-    <row r="296" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="21"/>
     </row>
-    <row r="297" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="21"/>
     </row>
-    <row r="298" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="21"/>
     </row>
-    <row r="299" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="21"/>
     </row>
-    <row r="300" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="21"/>
     </row>
-    <row r="301" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="21"/>
     </row>
-    <row r="302" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="21"/>
     </row>
-    <row r="303" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="21"/>
     </row>
-    <row r="304" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="21"/>
     </row>
-    <row r="305" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="21"/>
     </row>
-    <row r="306" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="21"/>
     </row>
-    <row r="307" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="21"/>
     </row>
-    <row r="308" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="21"/>
     </row>
-    <row r="309" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="21"/>
     </row>
-    <row r="310" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="21"/>
     </row>
-    <row r="311" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="21"/>
     </row>
-    <row r="312" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="21"/>
     </row>
-    <row r="313" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="21"/>
     </row>
-    <row r="314" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="21"/>
     </row>
-    <row r="315" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="21"/>
     </row>
-    <row r="316" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="21"/>
     </row>
-    <row r="317" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="21"/>
     </row>
-    <row r="318" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="21"/>
     </row>
-    <row r="319" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="21"/>
     </row>
-    <row r="320" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="21"/>
     </row>
-    <row r="321" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="21"/>
     </row>
-    <row r="322" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="21"/>
     </row>
-    <row r="323" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="21"/>
     </row>
-    <row r="324" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="21"/>
     </row>
-    <row r="325" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="21"/>
     </row>
-    <row r="326" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="21"/>
     </row>
-    <row r="327" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="21"/>
     </row>
-    <row r="328" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="21"/>
     </row>
-    <row r="329" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="21"/>
     </row>
-    <row r="330" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="21"/>
     </row>
-    <row r="331" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="21"/>
     </row>
-    <row r="332" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="21"/>
     </row>
-    <row r="333" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="21"/>
     </row>
-    <row r="334" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="21"/>
     </row>
-    <row r="335" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="21"/>
     </row>
-    <row r="336" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="21"/>
     </row>
-    <row r="337" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="21"/>
     </row>
-    <row r="338" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="21"/>
     </row>
-    <row r="339" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="21"/>
     </row>
-    <row r="340" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="21"/>
     </row>
-    <row r="341" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="21"/>
     </row>
-    <row r="342" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="21"/>
     </row>
-    <row r="343" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="21"/>
     </row>
-    <row r="344" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="21"/>
     </row>
-    <row r="345" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="21"/>
     </row>
-    <row r="346" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="21"/>
     </row>
-    <row r="347" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="21"/>
     </row>
-    <row r="348" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="21"/>
     </row>
-    <row r="349" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="21"/>
     </row>
-    <row r="350" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="21"/>
     </row>
-    <row r="351" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="21"/>
     </row>
-    <row r="352" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="21"/>
     </row>
-    <row r="353" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="21"/>
     </row>
-    <row r="354" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="21"/>
     </row>
-    <row r="355" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="21"/>
     </row>
-    <row r="356" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="21"/>
     </row>
-    <row r="357" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="21"/>
     </row>
-    <row r="358" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="21"/>
     </row>
-    <row r="359" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="21"/>
     </row>
-    <row r="360" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="21"/>
     </row>
-    <row r="361" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="21"/>
     </row>
-    <row r="362" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="21"/>
     </row>
-    <row r="363" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="21"/>
     </row>
-    <row r="364" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="21"/>
     </row>
-    <row r="365" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="21"/>
     </row>
-    <row r="366" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="21"/>
     </row>
-    <row r="367" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="21"/>
     </row>
-    <row r="368" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="21"/>
     </row>
-    <row r="369" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="21"/>
     </row>
-    <row r="370" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="21"/>
     </row>
-    <row r="371" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="21"/>
     </row>
-    <row r="372" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="21"/>
     </row>
-    <row r="373" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="21"/>
     </row>
-    <row r="374" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="21"/>
     </row>
-    <row r="375" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="21"/>
     </row>
-    <row r="376" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="21"/>
     </row>
-    <row r="377" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="21"/>
     </row>
-    <row r="378" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="21"/>
     </row>
-    <row r="379" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="21"/>
     </row>
-    <row r="380" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="21"/>
     </row>
-    <row r="381" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="21"/>
     </row>
-    <row r="382" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="21"/>
     </row>
-    <row r="383" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="21"/>
     </row>
-    <row r="384" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="21"/>
     </row>
-    <row r="385" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="21"/>
     </row>
-    <row r="386" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="21"/>
     </row>
-    <row r="387" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="21"/>
     </row>
-    <row r="388" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="21"/>
     </row>
-    <row r="389" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="21"/>
     </row>
-    <row r="390" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="21"/>
     </row>
-    <row r="391" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="21"/>
     </row>
-    <row r="392" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="21"/>
     </row>
-    <row r="393" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="21"/>
     </row>
-    <row r="394" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="21"/>
     </row>
-    <row r="395" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="21"/>
     </row>
-    <row r="396" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="21"/>
     </row>
-    <row r="397" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="21"/>
     </row>
-    <row r="398" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="21"/>
     </row>
-    <row r="399" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="21"/>
     </row>
-    <row r="400" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="21"/>
     </row>
-    <row r="401" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="21"/>
     </row>
-    <row r="402" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="21"/>
     </row>
-    <row r="403" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="21"/>
     </row>
-    <row r="404" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="21"/>
     </row>
-    <row r="405" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="21"/>
     </row>
-    <row r="406" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="21"/>
     </row>
-    <row r="407" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="21"/>
     </row>
-    <row r="408" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="21"/>
     </row>
-    <row r="409" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="21"/>
     </row>
-    <row r="410" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="21"/>
     </row>
-    <row r="411" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="21"/>
     </row>
-    <row r="412" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="21"/>
     </row>
-    <row r="413" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="21"/>
     </row>
-    <row r="414" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="21"/>
     </row>
-    <row r="415" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="21"/>
     </row>
-    <row r="416" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="21"/>
     </row>
-    <row r="417" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="21"/>
     </row>
-    <row r="418" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="21"/>
     </row>
-    <row r="419" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="21"/>
     </row>
-    <row r="420" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="21"/>
     </row>
-    <row r="421" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="21"/>
     </row>
-    <row r="422" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="21"/>
     </row>
-    <row r="423" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="21"/>
     </row>
-    <row r="424" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="21"/>
     </row>
-    <row r="425" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="21"/>
     </row>
-    <row r="426" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="21"/>
     </row>
-    <row r="427" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="21"/>
     </row>
-    <row r="428" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="21"/>
     </row>
-    <row r="429" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="21"/>
     </row>
-    <row r="430" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="21"/>
     </row>
-    <row r="431" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="21"/>
     </row>
-    <row r="432" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="21"/>
     </row>
-    <row r="433" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="21"/>
     </row>
-    <row r="434" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="21"/>
     </row>
-    <row r="435" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="21"/>
     </row>
-    <row r="436" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="21"/>
     </row>
-    <row r="437" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="21"/>
     </row>
-    <row r="438" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="21"/>
     </row>
-    <row r="439" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="21"/>
     </row>
-    <row r="440" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="21"/>
     </row>
-    <row r="441" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="21"/>
     </row>
-    <row r="442" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="21"/>
     </row>
-    <row r="443" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="21"/>
     </row>
-    <row r="444" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="21"/>
     </row>
-    <row r="445" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="21"/>
     </row>
-    <row r="446" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="21"/>
     </row>
-    <row r="447" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="21"/>
     </row>
-    <row r="448" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="21"/>
     </row>
-    <row r="449" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="21"/>
     </row>
-    <row r="450" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="21"/>
     </row>
-    <row r="451" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="21"/>
     </row>
-    <row r="452" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="21"/>
     </row>
-    <row r="453" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="21"/>
     </row>
-    <row r="454" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="21"/>
     </row>
-    <row r="455" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="21"/>
     </row>
-    <row r="456" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="21"/>
     </row>
-    <row r="457" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="21"/>
     </row>
-    <row r="458" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="21"/>
     </row>
-    <row r="459" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="21"/>
     </row>
-    <row r="460" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="21"/>
     </row>
-    <row r="461" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="21"/>
     </row>
-    <row r="462" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="21"/>
     </row>
-    <row r="463" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="21"/>
     </row>
-    <row r="464" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="21"/>
     </row>
-    <row r="465" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="21"/>
     </row>
-    <row r="466" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="21"/>
     </row>
-    <row r="467" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="21"/>
     </row>
-    <row r="468" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="21"/>
     </row>
-    <row r="469" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="21"/>
     </row>
-    <row r="470" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="21"/>
     </row>
-    <row r="471" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="21"/>
     </row>
-    <row r="472" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="21"/>
     </row>
-    <row r="473" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="21"/>
     </row>
-    <row r="474" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="21"/>
     </row>
-    <row r="475" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="21"/>
     </row>
-    <row r="476" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="21"/>
     </row>
-    <row r="477" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="21"/>
     </row>
-    <row r="478" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="21"/>
     </row>
-    <row r="479" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="21"/>
     </row>
-    <row r="480" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="21"/>
     </row>
-    <row r="481" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="21"/>
     </row>
-    <row r="482" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="21"/>
     </row>
-    <row r="483" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="21"/>
     </row>
-    <row r="484" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="21"/>
     </row>
-    <row r="485" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="21"/>
     </row>
-    <row r="486" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="21"/>
     </row>
-    <row r="487" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="21"/>
     </row>
-    <row r="488" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="21"/>
     </row>
-    <row r="489" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="21"/>
     </row>
-    <row r="490" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="21"/>
     </row>
-    <row r="491" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="21"/>
     </row>
-    <row r="492" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="21"/>
     </row>
-    <row r="493" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="21"/>
     </row>
-    <row r="494" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="21"/>
     </row>
-    <row r="495" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="21"/>
     </row>
-    <row r="496" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="21"/>
     </row>
-    <row r="497" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="21"/>
     </row>
-    <row r="498" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="21"/>
     </row>
-    <row r="499" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="21"/>
     </row>
-    <row r="500" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="21"/>
     </row>
-    <row r="501" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="21"/>
     </row>
-    <row r="502" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="21"/>
     </row>
-    <row r="503" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="21"/>
     </row>
-    <row r="504" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="21"/>
     </row>
-    <row r="505" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="21"/>
     </row>
-    <row r="506" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="21"/>
     </row>
-    <row r="507" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="21"/>
     </row>
-    <row r="508" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="21"/>
     </row>
-    <row r="509" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="21"/>
     </row>
-    <row r="510" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="21"/>
     </row>
-    <row r="511" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="21"/>
     </row>
-    <row r="512" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="21"/>
     </row>
-    <row r="513" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="21"/>
     </row>
-    <row r="514" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="21"/>
     </row>
-    <row r="515" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="21"/>
     </row>
-    <row r="516" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="21"/>
     </row>
-    <row r="517" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="21"/>
     </row>
-    <row r="518" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="21"/>
     </row>
-    <row r="519" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="21"/>
     </row>
-    <row r="520" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="21"/>
     </row>
-    <row r="521" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="21"/>
     </row>
-    <row r="522" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="21"/>
     </row>
-    <row r="523" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="21"/>
     </row>
-    <row r="524" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="21"/>
     </row>
-    <row r="525" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="21"/>
     </row>
-    <row r="526" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="21"/>
     </row>
-    <row r="527" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="21"/>
     </row>
-    <row r="528" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="21"/>
     </row>
-    <row r="529" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="21"/>
     </row>
-    <row r="530" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="21"/>
     </row>
-    <row r="531" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="21"/>
     </row>
-    <row r="532" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="21"/>
     </row>
-    <row r="533" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="21"/>
     </row>
-    <row r="534" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="21"/>
     </row>
-    <row r="535" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="21"/>
     </row>
-    <row r="536" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="21"/>
     </row>
-    <row r="537" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="21"/>
     </row>
-    <row r="538" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="21"/>
     </row>
-    <row r="539" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="21"/>
     </row>
-    <row r="540" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="21"/>
     </row>
-    <row r="541" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="21"/>
     </row>
-    <row r="542" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="21"/>
     </row>
-    <row r="543" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="21"/>
     </row>
-    <row r="544" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="21"/>
     </row>
-    <row r="545" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="21"/>
     </row>
-    <row r="546" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="21"/>
     </row>
-    <row r="547" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="21"/>
     </row>
-    <row r="548" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="21"/>
     </row>
-    <row r="549" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="21"/>
     </row>
-    <row r="550" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="21"/>
     </row>
-    <row r="551" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="21"/>
     </row>
-    <row r="552" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="21"/>
     </row>
-    <row r="553" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="21"/>
     </row>
-    <row r="554" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="21"/>
     </row>
-    <row r="555" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="21"/>
     </row>
-    <row r="556" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="21"/>
     </row>
-    <row r="557" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="21"/>
     </row>
-    <row r="558" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="21"/>
     </row>
-    <row r="559" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="21"/>
     </row>
-    <row r="560" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="21"/>
     </row>
-    <row r="561" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="21"/>
     </row>
-    <row r="562" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="21"/>
     </row>
-    <row r="563" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="21"/>
     </row>
-    <row r="564" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="21"/>
     </row>
-    <row r="565" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="21"/>
     </row>
-    <row r="566" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="21"/>
     </row>
-    <row r="567" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="21"/>
     </row>
-    <row r="568" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="21"/>
     </row>
-    <row r="569" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="21"/>
     </row>
-    <row r="570" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="21"/>
     </row>
-    <row r="571" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="21"/>
     </row>
-    <row r="572" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="21"/>
     </row>
-    <row r="573" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="21"/>
     </row>
-    <row r="574" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="21"/>
     </row>
-    <row r="575" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="21"/>
     </row>
-    <row r="576" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="21"/>
     </row>
-    <row r="577" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="21"/>
     </row>
-    <row r="578" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="21"/>
     </row>
-    <row r="579" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="21"/>
     </row>
-    <row r="580" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="21"/>
     </row>
-    <row r="581" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="21"/>
     </row>
-    <row r="582" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="21"/>
     </row>
-    <row r="583" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="21"/>
     </row>
-    <row r="584" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="21"/>
     </row>
-    <row r="585" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="21"/>
     </row>
-    <row r="586" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="21"/>
     </row>
-    <row r="587" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="21"/>
     </row>
-    <row r="588" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="21"/>
     </row>
-    <row r="589" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="21"/>
     </row>
-    <row r="590" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="21"/>
     </row>
-    <row r="591" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="21"/>
     </row>
-    <row r="592" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="21"/>
     </row>
-    <row r="593" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="21"/>
     </row>
-    <row r="594" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="21"/>
     </row>
-    <row r="595" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="21"/>
     </row>
-    <row r="596" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="21"/>
     </row>
-    <row r="597" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="21"/>
     </row>
-    <row r="598" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="21"/>
     </row>
-    <row r="599" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="21"/>
     </row>
-    <row r="600" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="21"/>
     </row>
-    <row r="601" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="21"/>
     </row>
-    <row r="602" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="21"/>
     </row>
-    <row r="603" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="21"/>
     </row>
-    <row r="604" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="21"/>
     </row>
-    <row r="605" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="21"/>
     </row>
-    <row r="606" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="21"/>
     </row>
-    <row r="607" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="21"/>
     </row>
-    <row r="608" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="21"/>
     </row>
-    <row r="609" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="21"/>
     </row>
-    <row r="610" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="21"/>
     </row>
-    <row r="611" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="21"/>
     </row>
-    <row r="612" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="21"/>
     </row>
-    <row r="613" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="21"/>
     </row>
-    <row r="614" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="21"/>
     </row>
-    <row r="615" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="21"/>
     </row>
-    <row r="616" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="21"/>
     </row>
-    <row r="617" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="21"/>
     </row>
-    <row r="618" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="21"/>
     </row>
-    <row r="619" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="21"/>
     </row>
-    <row r="620" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="21"/>
     </row>
-    <row r="621" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="21"/>
     </row>
-    <row r="622" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="21"/>
     </row>
-    <row r="623" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="21"/>
     </row>
-    <row r="624" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="21"/>
     </row>
-    <row r="625" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="21"/>
     </row>
-    <row r="626" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="21"/>
     </row>
-    <row r="627" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="21"/>
     </row>
-    <row r="628" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="21"/>
     </row>
-    <row r="629" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="21"/>
     </row>
-    <row r="630" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="21"/>
     </row>
-    <row r="631" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="21"/>
     </row>
-    <row r="632" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="21"/>
     </row>
-    <row r="633" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="21"/>
     </row>
-    <row r="634" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="21"/>
     </row>
-    <row r="635" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="21"/>
     </row>
-    <row r="636" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="21"/>
     </row>
-    <row r="637" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="21"/>
     </row>
-    <row r="638" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="21"/>
     </row>
-    <row r="639" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="21"/>
     </row>
-    <row r="640" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="21"/>
     </row>
-    <row r="641" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="21"/>
     </row>
-    <row r="642" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="21"/>
     </row>
-    <row r="643" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="21"/>
     </row>
-    <row r="644" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="21"/>
     </row>
-    <row r="645" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="21"/>
     </row>
-    <row r="646" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="21"/>
     </row>
-    <row r="647" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="21"/>
     </row>
-    <row r="648" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="21"/>
     </row>
-    <row r="649" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="21"/>
     </row>
-    <row r="650" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="21"/>
     </row>
-    <row r="651" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="21"/>
     </row>
-    <row r="652" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="21"/>
     </row>
-    <row r="653" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="21"/>
     </row>
-    <row r="654" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="21"/>
     </row>
-    <row r="655" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="21"/>
     </row>
-    <row r="656" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="21"/>
     </row>
-    <row r="657" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="21"/>
     </row>
-    <row r="658" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="21"/>
     </row>
-    <row r="659" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="21"/>
     </row>
-    <row r="660" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="21"/>
     </row>
-    <row r="661" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="21"/>
     </row>
-    <row r="662" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="21"/>
     </row>
-    <row r="663" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="21"/>
     </row>
-    <row r="664" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="21"/>
     </row>
-    <row r="665" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="21"/>
     </row>
-    <row r="666" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="21"/>
     </row>
-    <row r="667" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="21"/>
     </row>
-    <row r="668" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="21"/>
     </row>
-    <row r="669" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="21"/>
     </row>
-    <row r="670" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="21"/>
     </row>
-    <row r="671" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="21"/>
     </row>
-    <row r="672" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="21"/>
     </row>
-    <row r="673" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="21"/>
     </row>
-    <row r="674" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="21"/>
     </row>
-    <row r="675" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="21"/>
     </row>
-    <row r="676" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="21"/>
     </row>
-    <row r="677" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="21"/>
     </row>
-    <row r="678" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="21"/>
     </row>
-    <row r="679" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="21"/>
     </row>
-    <row r="680" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="21"/>
     </row>
-    <row r="681" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="21"/>
     </row>
-    <row r="682" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="21"/>
     </row>
-    <row r="683" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="21"/>
     </row>
-    <row r="684" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="21"/>
     </row>
-    <row r="685" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="21"/>
     </row>
-    <row r="686" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="21"/>
     </row>
-    <row r="687" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="21"/>
     </row>
-    <row r="688" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="21"/>
     </row>
-    <row r="689" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="21"/>
     </row>
-    <row r="690" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="21"/>
     </row>
-    <row r="691" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="21"/>
     </row>
-    <row r="692" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="21"/>
     </row>
-    <row r="693" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="21"/>
     </row>
-    <row r="694" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="21"/>
     </row>
-    <row r="695" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="21"/>
     </row>
-    <row r="696" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="21"/>
     </row>
-    <row r="697" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="21"/>
     </row>
-    <row r="698" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="21"/>
     </row>
-    <row r="699" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="21"/>
     </row>
-    <row r="700" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="21"/>
     </row>
-    <row r="701" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="21"/>
     </row>
-    <row r="702" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="21"/>
     </row>
-    <row r="703" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="21"/>
     </row>
-    <row r="704" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="21"/>
     </row>
-    <row r="705" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="21"/>
     </row>
-    <row r="706" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="21"/>
     </row>
-    <row r="707" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="21"/>
     </row>
-    <row r="708" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="21"/>
     </row>
-    <row r="709" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="21"/>
     </row>
-    <row r="710" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="21"/>
     </row>
-    <row r="711" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="21"/>
     </row>
-    <row r="712" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="21"/>
     </row>
-    <row r="713" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="21"/>
     </row>
-    <row r="714" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="21"/>
     </row>
-    <row r="715" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="21"/>
     </row>
-    <row r="716" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="21"/>
     </row>
-    <row r="717" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="21"/>
     </row>
-    <row r="718" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="21"/>
     </row>
-    <row r="719" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="21"/>
     </row>
-    <row r="720" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="21"/>
     </row>
-    <row r="721" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="21"/>
     </row>
-    <row r="722" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="21"/>
     </row>
-    <row r="723" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="21"/>
     </row>
-    <row r="724" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="21"/>
     </row>
-    <row r="725" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="21"/>
     </row>
-    <row r="726" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="21"/>
     </row>
-    <row r="727" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="21"/>
     </row>
-    <row r="728" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="21"/>
     </row>
-    <row r="729" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="21"/>
     </row>
-    <row r="730" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="21"/>
     </row>
-    <row r="731" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="21"/>
     </row>
-    <row r="732" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="21"/>
     </row>
-    <row r="733" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="21"/>
     </row>
-    <row r="734" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="21"/>
     </row>
-    <row r="735" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="21"/>
     </row>
-    <row r="736" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="21"/>
     </row>
-    <row r="737" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="21"/>
     </row>
-    <row r="738" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="21"/>
     </row>
-    <row r="739" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="21"/>
     </row>
-    <row r="740" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="21"/>
     </row>
-    <row r="741" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="21"/>
     </row>
-    <row r="742" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="21"/>
     </row>
-    <row r="743" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="21"/>
     </row>
-    <row r="744" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="21"/>
     </row>
-    <row r="745" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="21"/>
     </row>
-    <row r="746" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="21"/>
     </row>
-    <row r="747" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="21"/>
     </row>
-    <row r="748" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="21"/>
     </row>
-    <row r="749" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="21"/>
     </row>
-    <row r="750" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="21"/>
     </row>
-    <row r="751" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="21"/>
     </row>
-    <row r="752" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="21"/>
     </row>
-    <row r="753" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="21"/>
     </row>
-    <row r="754" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="21"/>
     </row>
-    <row r="755" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="21"/>
     </row>
-    <row r="756" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="21"/>
     </row>
-    <row r="757" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="21"/>
     </row>
-    <row r="758" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="21"/>
     </row>
-    <row r="759" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="21"/>
     </row>
-    <row r="760" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="21"/>
     </row>
-    <row r="761" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="21"/>
     </row>
-    <row r="762" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="21"/>
     </row>
-    <row r="763" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="21"/>
     </row>
-    <row r="764" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="21"/>
     </row>
-    <row r="765" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="21"/>
     </row>
-    <row r="766" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="21"/>
     </row>
-    <row r="767" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="21"/>
     </row>
-    <row r="768" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="21"/>
     </row>
-    <row r="769" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="21"/>
     </row>
-    <row r="770" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="21"/>
     </row>
-    <row r="771" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="21"/>
     </row>
-    <row r="772" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="21"/>
     </row>
-    <row r="773" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="21"/>
     </row>
-    <row r="774" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="21"/>
     </row>
-    <row r="775" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="21"/>
     </row>
-    <row r="776" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="21"/>
     </row>
-    <row r="777" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="21"/>
     </row>
-    <row r="778" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="21"/>
     </row>
-    <row r="779" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="21"/>
     </row>
-    <row r="780" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="21"/>
     </row>
-    <row r="781" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="21"/>
     </row>
-    <row r="782" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="21"/>
     </row>
-    <row r="783" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="21"/>
     </row>
-    <row r="784" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="21"/>
     </row>
-    <row r="785" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="21"/>
     </row>
-    <row r="786" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="21"/>
     </row>
-    <row r="787" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="21"/>
     </row>
-    <row r="788" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="21"/>
     </row>
-    <row r="789" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="21"/>
     </row>
-    <row r="790" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="21"/>
     </row>
-    <row r="791" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="21"/>
     </row>
-    <row r="792" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="21"/>
     </row>
-    <row r="793" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="21"/>
     </row>
-    <row r="794" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="21"/>
     </row>
-    <row r="795" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="21"/>
     </row>
-    <row r="796" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="21"/>
     </row>
-    <row r="797" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="21"/>
     </row>
-    <row r="798" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="21"/>
     </row>
-    <row r="799" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="21"/>
     </row>
-    <row r="800" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="21"/>
     </row>
-    <row r="801" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="21"/>
     </row>
-    <row r="802" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="21"/>
     </row>
-    <row r="803" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="21"/>
     </row>
-    <row r="804" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="21"/>
     </row>
-    <row r="805" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="21"/>
     </row>
-    <row r="806" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="21"/>
     </row>
-    <row r="807" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="21"/>
     </row>
-    <row r="808" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="21"/>
     </row>
-    <row r="809" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="21"/>
     </row>
-    <row r="810" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="21"/>
     </row>
-    <row r="811" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="21"/>
     </row>
-    <row r="812" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="21"/>
     </row>
-    <row r="813" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="21"/>
     </row>
-    <row r="814" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="21"/>
     </row>
-    <row r="815" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="21"/>
     </row>
-    <row r="816" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="21"/>
     </row>
-    <row r="817" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="21"/>
     </row>
-    <row r="818" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="21"/>
     </row>
-    <row r="819" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="21"/>
     </row>
-    <row r="820" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="21"/>
     </row>
-    <row r="821" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="21"/>
     </row>
-    <row r="822" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="21"/>
     </row>
-    <row r="823" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="21"/>
     </row>
-    <row r="824" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="21"/>
     </row>
-    <row r="825" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="21"/>
     </row>
-    <row r="826" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="21"/>
     </row>
-    <row r="827" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="21"/>
     </row>
-    <row r="828" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="21"/>
     </row>
-    <row r="829" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="21"/>
     </row>
-    <row r="830" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="21"/>
     </row>
-    <row r="831" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="21"/>
     </row>
-    <row r="832" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="21"/>
     </row>
-    <row r="833" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="21"/>
     </row>
-    <row r="834" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="21"/>
     </row>
-    <row r="835" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="21"/>
     </row>
-    <row r="836" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="21"/>
     </row>
-    <row r="837" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="21"/>
     </row>
-    <row r="838" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="21"/>
     </row>
-    <row r="839" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="21"/>
     </row>
-    <row r="840" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="21"/>
     </row>
-    <row r="841" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="21"/>
     </row>
-    <row r="842" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="21"/>
     </row>
-    <row r="843" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="21"/>
     </row>
-    <row r="844" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="21"/>
     </row>
-    <row r="845" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="21"/>
     </row>
-    <row r="846" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="21"/>
     </row>
-    <row r="847" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="21"/>
     </row>
-    <row r="848" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="21"/>
     </row>
-    <row r="849" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="21"/>
     </row>
-    <row r="850" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="21"/>
     </row>
-    <row r="851" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="21"/>
     </row>
-    <row r="852" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="21"/>
     </row>
-    <row r="853" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="21"/>
     </row>
-    <row r="854" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="21"/>
     </row>
-    <row r="855" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="21"/>
     </row>
-    <row r="856" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="21"/>
     </row>
-    <row r="857" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="21"/>
     </row>
-    <row r="858" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="21"/>
     </row>
-    <row r="859" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="21"/>
     </row>
-    <row r="860" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="21"/>
     </row>
-    <row r="861" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="21"/>
     </row>
-    <row r="862" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="21"/>
     </row>
-    <row r="863" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="21"/>
     </row>
-    <row r="864" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="21"/>
     </row>
-    <row r="865" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="21"/>
     </row>
-    <row r="866" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="21"/>
     </row>
-    <row r="867" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="21"/>
     </row>
-    <row r="868" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="21"/>
     </row>
-    <row r="869" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="21"/>
     </row>
-    <row r="870" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="21"/>
     </row>
-    <row r="871" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="21"/>
     </row>
-    <row r="872" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="21"/>
     </row>
-    <row r="873" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="21"/>
     </row>
-    <row r="874" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="21"/>
     </row>
-    <row r="875" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="21"/>
     </row>
-    <row r="876" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="21"/>
     </row>
-    <row r="877" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="21"/>
     </row>
-    <row r="878" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="21"/>
     </row>
-    <row r="879" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="21"/>
     </row>
-    <row r="880" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="21"/>
     </row>
-    <row r="881" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="21"/>
     </row>
-    <row r="882" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="21"/>
     </row>
-    <row r="883" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="21"/>
     </row>
-    <row r="884" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="21"/>
     </row>
-    <row r="885" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="21"/>
     </row>
-    <row r="886" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="21"/>
     </row>
-    <row r="887" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="21"/>
     </row>
-    <row r="888" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="21"/>
     </row>
-    <row r="889" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="21"/>
     </row>
-    <row r="890" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="21"/>
     </row>
-    <row r="891" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="21"/>
     </row>
-    <row r="892" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="21"/>
     </row>
-    <row r="893" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="21"/>
     </row>
-    <row r="894" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="21"/>
     </row>
-    <row r="895" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="21"/>
     </row>
-    <row r="896" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="21"/>
     </row>
-    <row r="897" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="21"/>
     </row>
-    <row r="898" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="21"/>
     </row>
-    <row r="899" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="21"/>
     </row>
-    <row r="900" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="21"/>
     </row>
-    <row r="901" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="21"/>
     </row>
-    <row r="902" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="21"/>
     </row>
-    <row r="903" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="21"/>
     </row>
-    <row r="904" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="21"/>
     </row>
-    <row r="905" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="21"/>
     </row>
-    <row r="906" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="21"/>
     </row>
-    <row r="907" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="21"/>
     </row>
-    <row r="908" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="21"/>
     </row>
-    <row r="909" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="21"/>
     </row>
-    <row r="910" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="21"/>
     </row>
-    <row r="911" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="21"/>
     </row>
-    <row r="912" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="21"/>
     </row>
-    <row r="913" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="21"/>
     </row>
-    <row r="914" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="21"/>
     </row>
-    <row r="915" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="21"/>
     </row>
-    <row r="916" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="21"/>
     </row>
-    <row r="917" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="21"/>
     </row>
-    <row r="918" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="21"/>
     </row>
-    <row r="919" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="21"/>
     </row>
-    <row r="920" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="21"/>
     </row>
-    <row r="921" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="21"/>
     </row>
-    <row r="922" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="21"/>
     </row>
-    <row r="923" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="21"/>
     </row>
-    <row r="924" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="21"/>
     </row>
-    <row r="925" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="21"/>
     </row>
-    <row r="926" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="21"/>
     </row>
-    <row r="927" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="21"/>
     </row>
-    <row r="928" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="21"/>
     </row>
-    <row r="929" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="21"/>
     </row>
-    <row r="930" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="21"/>
     </row>
-    <row r="931" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="21"/>
     </row>
-    <row r="932" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="21"/>
     </row>
-    <row r="933" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="21"/>
     </row>
-    <row r="934" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="21"/>
     </row>
-    <row r="935" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="21"/>
     </row>
-    <row r="936" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="21"/>
     </row>
-    <row r="937" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="21"/>
     </row>
-    <row r="938" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="21"/>
     </row>
-    <row r="939" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="21"/>
     </row>
-    <row r="940" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="21"/>
     </row>
-    <row r="941" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="21"/>
     </row>
-    <row r="942" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="21"/>
     </row>
-    <row r="943" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="21"/>
     </row>
-    <row r="944" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="21"/>
     </row>
-    <row r="945" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="21"/>
     </row>
-    <row r="946" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="21"/>
     </row>
-    <row r="947" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="21"/>
     </row>
-    <row r="948" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="21"/>
     </row>
-    <row r="949" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="21"/>
     </row>
-    <row r="950" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="21"/>
     </row>
-    <row r="951" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="21"/>
     </row>
-    <row r="952" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="21"/>
     </row>
-    <row r="953" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="21"/>
     </row>
-    <row r="954" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="21"/>
     </row>
-    <row r="955" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="21"/>
     </row>
-    <row r="956" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="21"/>
     </row>
-    <row r="957" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="21"/>
     </row>
-    <row r="958" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="21"/>
     </row>
-    <row r="959" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="21"/>
     </row>
-    <row r="960" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="21"/>
     </row>
-    <row r="961" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="21"/>
     </row>
-    <row r="962" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="21"/>
     </row>
-    <row r="963" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="21"/>
     </row>
-    <row r="964" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="21"/>
     </row>
-    <row r="965" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="21"/>
     </row>
-    <row r="966" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="21"/>
     </row>
-    <row r="967" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="21"/>
     </row>
-    <row r="968" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="21"/>
     </row>
-    <row r="969" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="21"/>
     </row>
-    <row r="970" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="21"/>
     </row>
-    <row r="971" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="21"/>
     </row>
-    <row r="972" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="21"/>
     </row>
-    <row r="973" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="21"/>
     </row>
-    <row r="974" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="21"/>
     </row>
-    <row r="975" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="21"/>
     </row>
-    <row r="976" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="21"/>
     </row>
-    <row r="977" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="21"/>
     </row>
-    <row r="978" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="21"/>
     </row>
-    <row r="979" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B979" s="21"/>
     </row>
-    <row r="980" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B980" s="21"/>
     </row>
-    <row r="981" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B981" s="21"/>
     </row>
-    <row r="982" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B982" s="21"/>
     </row>
-    <row r="983" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B983" s="21"/>
     </row>
-    <row r="984" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B984" s="21"/>
     </row>
-    <row r="985" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B985" s="21"/>
     </row>
-    <row r="986" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B986" s="21"/>
     </row>
-    <row r="987" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B987" s="21"/>
     </row>
-    <row r="988" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B988" s="21"/>
     </row>
-    <row r="989" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B989" s="21"/>
     </row>
-    <row r="990" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B990" s="21"/>
     </row>
-    <row r="991" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B991" s="21"/>
     </row>
-    <row r="992" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B992" s="21"/>
     </row>
-    <row r="993" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B993" s="21"/>
     </row>
-    <row r="994" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B994" s="21"/>
     </row>
-    <row r="995" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B995" s="21"/>
     </row>
-    <row r="996" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B996" s="21"/>
     </row>
-    <row r="997" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B997" s="21"/>
     </row>
-    <row r="998" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B998" s="21"/>
     </row>
-    <row r="999" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B999" s="21"/>
     </row>
-    <row r="1000" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1000" s="21"/>
     </row>
   </sheetData>
